--- a/tests/input_file/inputparameters.xlsx
+++ b/tests/input_file/inputparameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input_variables" sheetId="1" r:id="rId1"/>
@@ -528,26 +528,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -561,53 +564,92 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -615,6 +657,221 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="35">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -626,7 +883,8 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -636,16 +894,140 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="0"/>
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -702,20 +1084,43 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color auto="1"/>
+        <color theme="0"/>
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -741,182 +1146,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.00000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <strike val="0"/>
         <outline val="0"/>
@@ -936,167 +1165,6 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1111,63 +1179,63 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="railmaterials" displayName="railmaterials" ref="A1:I8" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowCellStyle="Gut">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="railmaterials" displayName="railmaterials" ref="A1:I8" totalsRowShown="0" headerRowDxfId="34" dataDxfId="16" headerRowCellStyle="Gut">
   <autoFilter ref="A1:I8"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="name" dataDxfId="27"/>
-    <tableColumn id="2" name="norm" dataDxfId="26"/>
-    <tableColumn id="3" name="material_number" dataDxfId="25"/>
-    <tableColumn id="4" name="hardened" dataDxfId="24"/>
-    <tableColumn id="5" name="f_y" dataDxfId="23"/>
-    <tableColumn id="6" name="HB" dataDxfId="22"/>
-    <tableColumn id="7" name="E" dataDxfId="21"/>
-    <tableColumn id="8" name="v" dataDxfId="20"/>
-    <tableColumn id="9" name="z" dataDxfId="19"/>
+    <tableColumn id="1" name="name" dataDxfId="25"/>
+    <tableColumn id="2" name="norm" dataDxfId="24"/>
+    <tableColumn id="3" name="material_number" dataDxfId="23"/>
+    <tableColumn id="4" name="hardened" dataDxfId="22"/>
+    <tableColumn id="5" name="f_y" dataDxfId="21"/>
+    <tableColumn id="6" name="HB" dataDxfId="20"/>
+    <tableColumn id="7" name="E" dataDxfId="19"/>
+    <tableColumn id="8" name="v" dataDxfId="18"/>
+    <tableColumn id="9" name="z" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="wheelmaterials4" displayName="wheelmaterials4" ref="A1:I9" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowCellStyle="Gut">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="wheelmaterials4" displayName="wheelmaterials4" ref="A1:I9" totalsRowShown="0" headerRowDxfId="33" dataDxfId="6" headerRowCellStyle="Gut">
   <autoFilter ref="A1:I9"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="name" dataDxfId="16"/>
-    <tableColumn id="2" name="norm" dataDxfId="15"/>
-    <tableColumn id="3" name="material_number" dataDxfId="14"/>
-    <tableColumn id="4" name="hardened" dataDxfId="13"/>
-    <tableColumn id="9" name="z" dataDxfId="12"/>
-    <tableColumn id="5" name="f_y" dataDxfId="11"/>
-    <tableColumn id="6" name="HB" dataDxfId="10"/>
-    <tableColumn id="7" name="E" dataDxfId="9"/>
-    <tableColumn id="8" name="v" dataDxfId="8"/>
+    <tableColumn id="1" name="name" dataDxfId="15"/>
+    <tableColumn id="2" name="norm" dataDxfId="14"/>
+    <tableColumn id="3" name="material_number" dataDxfId="13"/>
+    <tableColumn id="4" name="hardened" dataDxfId="12"/>
+    <tableColumn id="9" name="z" dataDxfId="11"/>
+    <tableColumn id="5" name="f_y" dataDxfId="10"/>
+    <tableColumn id="6" name="HB" dataDxfId="9"/>
+    <tableColumn id="7" name="E" dataDxfId="8"/>
+    <tableColumn id="8" name="v" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="wheelgeometries" displayName="wheelgeometries" ref="A1:E3" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="wheelgeometries" displayName="wheelgeometries" ref="A1:E3" totalsRowShown="0" headerRowDxfId="32" dataDxfId="0">
   <autoFilter ref="A1:E3"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="name" dataDxfId="34"/>
-    <tableColumn id="2" name="b" dataDxfId="33"/>
-    <tableColumn id="3" name="r_k" dataDxfId="32"/>
-    <tableColumn id="4" name="r_3" dataDxfId="31"/>
-    <tableColumn id="5" name="D" dataDxfId="30"/>
+    <tableColumn id="1" name="name" dataDxfId="5"/>
+    <tableColumn id="2" name="b" dataDxfId="4"/>
+    <tableColumn id="3" name="r_k" dataDxfId="3"/>
+    <tableColumn id="4" name="r_3" dataDxfId="2"/>
+    <tableColumn id="5" name="D" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="railgeometries" displayName="railgeometries" ref="A1:D3" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="railgeometries" displayName="railgeometries" ref="A1:D3" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:D3"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="name" dataDxfId="5"/>
-    <tableColumn id="2" name="b" dataDxfId="4"/>
-    <tableColumn id="3" name="r_k" dataDxfId="3"/>
-    <tableColumn id="4" name="r_3" dataDxfId="2"/>
+    <tableColumn id="1" name="name" dataDxfId="29"/>
+    <tableColumn id="2" name="b" dataDxfId="28"/>
+    <tableColumn id="3" name="r_k" dataDxfId="27"/>
+    <tableColumn id="4" name="r_3" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1470,930 +1538,6565 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O1907"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" hidden="1" customWidth="1"/>
-    <col min="4" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" hidden="1" customWidth="1"/>
+    <col min="4" max="6" width="19.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="4" t="s">
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+    </row>
+    <row r="2" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9"/>
+      <c r="B2" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="3" t="s">
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+    </row>
+    <row r="3" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9"/>
+      <c r="B3" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="17">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="17">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="4" t="s">
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+    </row>
+    <row r="4" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9"/>
+      <c r="B4" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="16">
         <v>1</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="16">
         <v>1</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="16">
         <v>1</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="16">
         <v>1</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="16">
         <v>1</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="3" t="s">
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+    </row>
+    <row r="5" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9"/>
+      <c r="B5" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="17">
         <v>1</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="17">
         <v>1</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="17">
         <v>1</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="17">
         <v>1</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="17">
         <v>1</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="4" t="s">
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+    </row>
+    <row r="6" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9"/>
+      <c r="B6" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="3" t="s">
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+    </row>
+    <row r="7" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9"/>
+      <c r="B7" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="4" t="s">
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+    </row>
+    <row r="8" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9"/>
+      <c r="B8" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="16">
         <v>20000</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="16">
         <v>15000</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="16">
         <v>40000</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="16">
         <v>23000</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="16">
         <v>15000</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="3" t="s">
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+    </row>
+    <row r="9" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9"/>
+      <c r="B9" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="17">
         <v>20000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="17">
         <v>15000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="17">
         <v>18000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="17">
         <v>12000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="17">
         <v>14000</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="5" t="s">
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+    </row>
+    <row r="10" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9"/>
+      <c r="B10" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="5">
-        <v>100000</v>
-      </c>
-      <c r="E10" s="5">
-        <v>100000</v>
-      </c>
-      <c r="F10" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G10" s="5">
-        <v>100000</v>
-      </c>
-      <c r="H10" s="5">
-        <v>100000</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="6" t="s">
+      <c r="D10" s="18">
+        <v>4000000</v>
+      </c>
+      <c r="E10" s="18">
+        <v>4000000</v>
+      </c>
+      <c r="F10" s="18">
+        <v>4000000</v>
+      </c>
+      <c r="G10" s="18">
+        <v>4000000</v>
+      </c>
+      <c r="H10" s="18">
+        <v>4000000</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+    </row>
+    <row r="11" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9"/>
+      <c r="B11" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="6">
-        <v>500000</v>
-      </c>
-      <c r="E11" s="6">
-        <v>500000</v>
-      </c>
-      <c r="F11" s="6">
-        <v>800000</v>
-      </c>
-      <c r="G11" s="6">
-        <v>100000</v>
-      </c>
-      <c r="H11" s="6">
-        <v>200000</v>
-      </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="5" t="s">
+      <c r="D11" s="19">
+        <v>12000000</v>
+      </c>
+      <c r="E11" s="19">
+        <v>13000000</v>
+      </c>
+      <c r="F11" s="19">
+        <v>13000000</v>
+      </c>
+      <c r="G11" s="19">
+        <v>13000000</v>
+      </c>
+      <c r="H11" s="19">
+        <v>13000000</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+    </row>
+    <row r="12" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10"/>
+      <c r="B12" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="18">
         <v>1</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="18">
         <v>2</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="18">
         <v>4</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="18">
         <v>1</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="18">
         <v>2</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+    </row>
+    <row r="13" spans="1:15" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="19">
         <v>24.9397924881983</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="19">
         <v>29.846033506748501</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="19">
         <v>21.549071913738601</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="19">
         <v>30.724628045371599</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="19">
         <v>24.603567265875999</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="5" t="s">
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+    </row>
+    <row r="14" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="12"/>
+      <c r="B14" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="18">
         <v>0.397534327540081</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="18">
         <v>0.38745672969163403</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="18">
         <v>0.27778552720397198</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="18">
         <v>0.38853068564494597</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="18">
         <v>0.39281645770158102</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="6" t="s">
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+    </row>
+    <row r="15" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="12"/>
+      <c r="B15" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="19">
         <v>310.53423258511901</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="19">
         <v>311.82631932244198</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="19">
         <v>262.54231664112598</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="19">
         <v>334.01554867815503</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="19">
         <v>217.83710715883799</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="5" t="s">
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+    </row>
+    <row r="16" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="12"/>
+      <c r="B16" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="18">
         <v>0.43852951083798603</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="18">
         <v>0.27896020164795099</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="18">
         <v>0.41639127372561502</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="18">
         <v>0.36908011038102101</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="18">
         <v>0.33759378483001701</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="6" t="s">
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+    </row>
+    <row r="17" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="12"/>
+      <c r="B17" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="19">
         <v>9592.8821295104699</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="19">
         <v>13728.6250951821</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="19">
         <v>9530.9428397424908</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="19">
         <v>11844.471056845599</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="19">
         <v>7039.1850549506698</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="5" t="s">
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+    </row>
+    <row r="18" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12"/>
+      <c r="B18" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="18">
         <v>6.9859353305379797</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="18">
         <v>4.8667038063889603</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="18">
         <v>5.9682746322479998</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="18">
         <v>7.6920989582716999</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="18">
         <v>7.9973902757422897</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="6" t="s">
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+    </row>
+    <row r="19" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="12"/>
+      <c r="B19" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="19">
         <v>0.36032232455732299</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="19">
         <v>0.43263553136410199</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="19">
         <v>0.311870213321776</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="19">
         <v>0.34484796209278801</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="19">
         <v>0.43685550941856799</v>
       </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="5" t="s">
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+    </row>
+    <row r="20" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="12"/>
+      <c r="B20" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="18">
         <v>235.360704664796</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="18">
         <v>208.806759033595</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="18">
         <v>226.06765407211699</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="18">
         <v>392.86734368371702</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="18">
         <v>391.55736926069602</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="6" t="s">
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+    </row>
+    <row r="21" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="12"/>
+      <c r="B21" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="19">
         <v>3620.8448324163101</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="19">
         <v>2311.15858694705</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="19">
         <v>2343.2994179618399</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="19">
         <v>4284.9699230713404</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="19">
         <v>3659.2272904198899</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="5" t="s">
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+    </row>
+    <row r="22" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12"/>
+      <c r="B22" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="18">
         <v>1.13373577673032</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="18">
         <v>2.4258179969420199</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="18">
         <v>2.3873285971102698</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="18">
         <v>1.4564750409017799</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="18">
         <v>0.99721191005946297</v>
       </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="6" t="s">
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+    </row>
+    <row r="23" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="12"/>
+      <c r="B23" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="19">
         <v>0.67575877439752896</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="19">
         <v>0.51712000434017502</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="19">
         <v>0.801477721483979</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="19">
         <v>9.8010774605840997E-2</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="19">
         <v>0.74159415955053198</v>
       </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="5" t="s">
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+    </row>
+    <row r="24" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="12"/>
+      <c r="B24" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="18">
         <v>3.8387980542432998</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="18">
         <v>1.8776339003870799</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="18">
         <v>3.3657208787845398</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="18">
         <v>2.4178541756165899</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="18">
         <v>1.56466211459187</v>
       </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="6" t="s">
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+    </row>
+    <row r="25" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="12"/>
+      <c r="B25" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="19">
         <v>0.82317441160238602</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="19">
         <v>0.63680145228157503</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="19">
         <v>0.85382760203728802</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="19">
         <v>0.594424181188418</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="19">
         <v>0.58201942471427504</v>
       </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="5" t="s">
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+    </row>
+    <row r="26" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="12"/>
+      <c r="B26" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="18">
         <v>2351.0358557609202</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="18">
         <v>4305.6905785423696</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="18">
         <v>5592.7916508867802</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="18">
         <v>1093.0004954073299</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="18">
         <v>5316.4232733114604</v>
       </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="6" t="s">
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+    </row>
+    <row r="27" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="12"/>
+      <c r="B27" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="19">
         <v>479.56427978543297</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="19">
         <v>342.07526272382</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="19">
         <v>629.09549703360005</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="19">
         <v>1336.8970567521501</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="19">
         <v>1431.3338377950799</v>
       </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="7" t="s">
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+    </row>
+    <row r="28" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="12"/>
+      <c r="B28" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="20">
         <v>1.5209241133552001</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="20">
         <v>1.4611356146706</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="20">
         <v>1.17459338972312</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="20">
         <v>1.17980028181748</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="20">
         <v>0.97421919684422997</v>
       </c>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15" t="s">
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+    </row>
+    <row r="29" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="13"/>
+      <c r="B29" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="21">
         <v>148.023377589456</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="21">
         <v>196.39317107510001</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="21">
         <v>170.37252984731199</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="21">
         <v>285.26395874702098</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="21">
         <v>203.71546054260199</v>
       </c>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+    </row>
+    <row r="30" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30"/>
+    </row>
+    <row r="31" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31"/>
+    </row>
+    <row r="32" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32"/>
+    </row>
+    <row r="33" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33"/>
+    </row>
+    <row r="34" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34"/>
+    </row>
+    <row r="35" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35"/>
+    </row>
+    <row r="36" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36"/>
+    </row>
+    <row r="37" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37"/>
+    </row>
+    <row r="38" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38"/>
+    </row>
+    <row r="39" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39"/>
+    </row>
+    <row r="40" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40"/>
+    </row>
+    <row r="41" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41"/>
+    </row>
+    <row r="42" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42"/>
+    </row>
+    <row r="43" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43"/>
+    </row>
+    <row r="44" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44"/>
+    </row>
+    <row r="45" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45"/>
+    </row>
+    <row r="46" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46"/>
+    </row>
+    <row r="47" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47"/>
+    </row>
+    <row r="48" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48"/>
+    </row>
+    <row r="49" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49"/>
+    </row>
+    <row r="50" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50"/>
+    </row>
+    <row r="51" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51"/>
+    </row>
+    <row r="52" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52"/>
+    </row>
+    <row r="53" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53"/>
+    </row>
+    <row r="54" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54"/>
+    </row>
+    <row r="55" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55"/>
+    </row>
+    <row r="56" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56"/>
+    </row>
+    <row r="57" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57"/>
+    </row>
+    <row r="58" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58"/>
+    </row>
+    <row r="59" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59"/>
+    </row>
+    <row r="60" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60"/>
+    </row>
+    <row r="61" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61"/>
+    </row>
+    <row r="62" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62"/>
+    </row>
+    <row r="63" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63"/>
+    </row>
+    <row r="64" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64"/>
+    </row>
+    <row r="65" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65"/>
+    </row>
+    <row r="66" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66"/>
+    </row>
+    <row r="67" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67"/>
+    </row>
+    <row r="68" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68"/>
+    </row>
+    <row r="69" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69"/>
+    </row>
+    <row r="70" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70"/>
+    </row>
+    <row r="71" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71"/>
+    </row>
+    <row r="72" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72"/>
+    </row>
+    <row r="73" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73"/>
+    </row>
+    <row r="74" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74"/>
+    </row>
+    <row r="75" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75"/>
+    </row>
+    <row r="76" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76"/>
+    </row>
+    <row r="77" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77"/>
+    </row>
+    <row r="78" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78"/>
+    </row>
+    <row r="79" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79"/>
+    </row>
+    <row r="80" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80"/>
+    </row>
+    <row r="81" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81"/>
+    </row>
+    <row r="82" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A82"/>
+    </row>
+    <row r="83" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83"/>
+    </row>
+    <row r="84" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84"/>
+    </row>
+    <row r="85" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85"/>
+    </row>
+    <row r="86" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A86"/>
+    </row>
+    <row r="87" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A87"/>
+    </row>
+    <row r="88" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A88"/>
+    </row>
+    <row r="89" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89"/>
+    </row>
+    <row r="90" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A90"/>
+    </row>
+    <row r="91" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A91"/>
+    </row>
+    <row r="92" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A92"/>
+    </row>
+    <row r="93" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A93"/>
+    </row>
+    <row r="94" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A94"/>
+    </row>
+    <row r="95" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A95"/>
+    </row>
+    <row r="96" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A96"/>
+    </row>
+    <row r="97" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A97"/>
+    </row>
+    <row r="98" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A98"/>
+    </row>
+    <row r="99" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A99"/>
+    </row>
+    <row r="100" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A100"/>
+    </row>
+    <row r="101" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A101"/>
+    </row>
+    <row r="102" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A102"/>
+    </row>
+    <row r="103" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A103"/>
+    </row>
+    <row r="104" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A104"/>
+    </row>
+    <row r="105" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A105"/>
+    </row>
+    <row r="106" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A106"/>
+    </row>
+    <row r="107" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A107"/>
+    </row>
+    <row r="108" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A108"/>
+    </row>
+    <row r="109" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A109"/>
+    </row>
+    <row r="110" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A110"/>
+    </row>
+    <row r="111" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A111"/>
+    </row>
+    <row r="112" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A112"/>
+    </row>
+    <row r="113" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A113"/>
+    </row>
+    <row r="114" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A114"/>
+    </row>
+    <row r="115" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A115"/>
+    </row>
+    <row r="116" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A116"/>
+    </row>
+    <row r="117" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A117"/>
+    </row>
+    <row r="118" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A118"/>
+    </row>
+    <row r="119" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A119"/>
+    </row>
+    <row r="120" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A120"/>
+    </row>
+    <row r="121" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A121"/>
+    </row>
+    <row r="122" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A122"/>
+    </row>
+    <row r="123" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A123"/>
+    </row>
+    <row r="124" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A124"/>
+    </row>
+    <row r="125" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A125"/>
+    </row>
+    <row r="126" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A126"/>
+    </row>
+    <row r="127" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A127"/>
+    </row>
+    <row r="128" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A128"/>
+    </row>
+    <row r="129" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A129"/>
+    </row>
+    <row r="130" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A130"/>
+    </row>
+    <row r="131" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A131"/>
+    </row>
+    <row r="132" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A132"/>
+    </row>
+    <row r="133" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A133"/>
+    </row>
+    <row r="134" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A134"/>
+    </row>
+    <row r="135" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A135"/>
+    </row>
+    <row r="136" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A136"/>
+    </row>
+    <row r="137" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A137"/>
+    </row>
+    <row r="138" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A138"/>
+    </row>
+    <row r="139" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A139"/>
+    </row>
+    <row r="140" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A140"/>
+    </row>
+    <row r="141" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A141"/>
+    </row>
+    <row r="142" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A142"/>
+    </row>
+    <row r="143" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A143"/>
+    </row>
+    <row r="144" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A144"/>
+    </row>
+    <row r="145" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A145"/>
+    </row>
+    <row r="146" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A146"/>
+    </row>
+    <row r="147" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A147"/>
+    </row>
+    <row r="148" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A148"/>
+    </row>
+    <row r="149" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A149"/>
+    </row>
+    <row r="150" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A150"/>
+    </row>
+    <row r="151" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A151"/>
+    </row>
+    <row r="152" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A152"/>
+    </row>
+    <row r="153" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A153"/>
+    </row>
+    <row r="154" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A154"/>
+    </row>
+    <row r="155" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A155"/>
+    </row>
+    <row r="156" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A156"/>
+    </row>
+    <row r="157" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A157"/>
+    </row>
+    <row r="158" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A158"/>
+    </row>
+    <row r="159" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A159"/>
+    </row>
+    <row r="160" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A160"/>
+    </row>
+    <row r="161" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A161"/>
+    </row>
+    <row r="162" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A162"/>
+    </row>
+    <row r="163" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A163"/>
+    </row>
+    <row r="164" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A164"/>
+    </row>
+    <row r="165" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A165"/>
+    </row>
+    <row r="166" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A166"/>
+    </row>
+    <row r="167" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A167"/>
+    </row>
+    <row r="168" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A168"/>
+    </row>
+    <row r="169" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A169"/>
+    </row>
+    <row r="170" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A170"/>
+    </row>
+    <row r="171" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A171"/>
+    </row>
+    <row r="172" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A172"/>
+    </row>
+    <row r="173" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A173"/>
+    </row>
+    <row r="174" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A174"/>
+    </row>
+    <row r="175" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A175"/>
+    </row>
+    <row r="176" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A176"/>
+    </row>
+    <row r="177" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A177"/>
+    </row>
+    <row r="178" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A178"/>
+    </row>
+    <row r="179" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A179"/>
+    </row>
+    <row r="180" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A180"/>
+    </row>
+    <row r="181" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A181"/>
+    </row>
+    <row r="182" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A182"/>
+    </row>
+    <row r="183" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A183"/>
+    </row>
+    <row r="184" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A184"/>
+    </row>
+    <row r="185" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A185"/>
+    </row>
+    <row r="186" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A186"/>
+    </row>
+    <row r="187" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A187"/>
+    </row>
+    <row r="188" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A188"/>
+    </row>
+    <row r="189" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A189"/>
+    </row>
+    <row r="190" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A190"/>
+    </row>
+    <row r="191" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A191"/>
+    </row>
+    <row r="192" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A192"/>
+    </row>
+    <row r="193" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A193"/>
+    </row>
+    <row r="194" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A194"/>
+    </row>
+    <row r="195" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A195"/>
+    </row>
+    <row r="196" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A196"/>
+    </row>
+    <row r="197" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A197"/>
+    </row>
+    <row r="198" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A198"/>
+    </row>
+    <row r="199" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A199"/>
+    </row>
+    <row r="200" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A200"/>
+    </row>
+    <row r="201" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A201"/>
+    </row>
+    <row r="202" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A202"/>
+    </row>
+    <row r="203" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A203"/>
+    </row>
+    <row r="204" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A204"/>
+    </row>
+    <row r="205" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A205"/>
+    </row>
+    <row r="206" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A206"/>
+    </row>
+    <row r="207" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A207"/>
+    </row>
+    <row r="208" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A208"/>
+    </row>
+    <row r="209" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A209"/>
+    </row>
+    <row r="210" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A210"/>
+    </row>
+    <row r="211" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A211"/>
+    </row>
+    <row r="212" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A212"/>
+    </row>
+    <row r="213" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A213"/>
+    </row>
+    <row r="214" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A214"/>
+    </row>
+    <row r="215" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A215"/>
+    </row>
+    <row r="216" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A216"/>
+    </row>
+    <row r="217" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A217"/>
+    </row>
+    <row r="218" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A218"/>
+    </row>
+    <row r="219" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A219"/>
+    </row>
+    <row r="220" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A220"/>
+    </row>
+    <row r="221" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A221"/>
+    </row>
+    <row r="222" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A222"/>
+    </row>
+    <row r="223" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A223"/>
+    </row>
+    <row r="224" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A224"/>
+    </row>
+    <row r="225" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A225"/>
+    </row>
+    <row r="226" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A226"/>
+    </row>
+    <row r="227" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A227"/>
+    </row>
+    <row r="228" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A228"/>
+    </row>
+    <row r="229" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A229"/>
+    </row>
+    <row r="230" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A230"/>
+    </row>
+    <row r="231" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A231"/>
+    </row>
+    <row r="232" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A232"/>
+    </row>
+    <row r="233" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A233"/>
+    </row>
+    <row r="234" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A234"/>
+    </row>
+    <row r="235" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A235"/>
+    </row>
+    <row r="236" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A236"/>
+    </row>
+    <row r="237" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A237"/>
+    </row>
+    <row r="238" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A238"/>
+    </row>
+    <row r="239" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A239"/>
+    </row>
+    <row r="240" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A240"/>
+    </row>
+    <row r="241" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A241"/>
+    </row>
+    <row r="242" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A242"/>
+    </row>
+    <row r="243" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A243"/>
+    </row>
+    <row r="244" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A244"/>
+    </row>
+    <row r="245" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A245"/>
+    </row>
+    <row r="246" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A246"/>
+    </row>
+    <row r="247" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A247"/>
+    </row>
+    <row r="248" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A248"/>
+    </row>
+    <row r="249" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A249"/>
+    </row>
+    <row r="250" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A250"/>
+    </row>
+    <row r="251" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A251"/>
+    </row>
+    <row r="252" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A252"/>
+    </row>
+    <row r="253" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A253"/>
+    </row>
+    <row r="254" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A254"/>
+    </row>
+    <row r="255" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A255"/>
+    </row>
+    <row r="256" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A256"/>
+    </row>
+    <row r="257" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A257"/>
+    </row>
+    <row r="258" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A258"/>
+    </row>
+    <row r="259" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A259"/>
+    </row>
+    <row r="260" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A260"/>
+    </row>
+    <row r="261" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A261"/>
+    </row>
+    <row r="262" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A262"/>
+    </row>
+    <row r="263" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A263"/>
+    </row>
+    <row r="264" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A264"/>
+    </row>
+    <row r="265" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A265"/>
+    </row>
+    <row r="266" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A266"/>
+    </row>
+    <row r="267" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A267"/>
+    </row>
+    <row r="268" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A268"/>
+    </row>
+    <row r="269" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A269"/>
+    </row>
+    <row r="270" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A270"/>
+    </row>
+    <row r="271" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A271"/>
+    </row>
+    <row r="272" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A272"/>
+    </row>
+    <row r="273" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A273"/>
+    </row>
+    <row r="274" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A274"/>
+    </row>
+    <row r="275" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A275"/>
+    </row>
+    <row r="276" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A276"/>
+    </row>
+    <row r="277" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A277"/>
+    </row>
+    <row r="278" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A278"/>
+    </row>
+    <row r="279" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A279"/>
+    </row>
+    <row r="280" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A280"/>
+    </row>
+    <row r="281" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A281"/>
+    </row>
+    <row r="282" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A282"/>
+    </row>
+    <row r="283" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A283"/>
+    </row>
+    <row r="284" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A284"/>
+    </row>
+    <row r="285" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A285"/>
+    </row>
+    <row r="286" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A286"/>
+    </row>
+    <row r="287" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A287"/>
+    </row>
+    <row r="288" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A288"/>
+    </row>
+    <row r="289" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A289"/>
+    </row>
+    <row r="290" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A290"/>
+    </row>
+    <row r="291" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A291"/>
+    </row>
+    <row r="292" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A292"/>
+    </row>
+    <row r="293" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A293"/>
+    </row>
+    <row r="294" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A294"/>
+    </row>
+    <row r="295" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A295"/>
+    </row>
+    <row r="296" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A296"/>
+    </row>
+    <row r="297" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A297"/>
+    </row>
+    <row r="298" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A298"/>
+    </row>
+    <row r="299" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A299"/>
+    </row>
+    <row r="300" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A300"/>
+    </row>
+    <row r="301" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A301"/>
+    </row>
+    <row r="302" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A302"/>
+    </row>
+    <row r="303" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A303"/>
+    </row>
+    <row r="304" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A304"/>
+    </row>
+    <row r="305" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A305"/>
+    </row>
+    <row r="306" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A306"/>
+    </row>
+    <row r="307" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A307"/>
+    </row>
+    <row r="308" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A308"/>
+    </row>
+    <row r="309" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A309"/>
+    </row>
+    <row r="310" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A310"/>
+    </row>
+    <row r="311" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A311"/>
+    </row>
+    <row r="312" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A312"/>
+    </row>
+    <row r="313" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A313"/>
+    </row>
+    <row r="314" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A314"/>
+    </row>
+    <row r="315" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A315"/>
+    </row>
+    <row r="316" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A316"/>
+    </row>
+    <row r="317" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A317"/>
+    </row>
+    <row r="318" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A318"/>
+    </row>
+    <row r="319" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A319"/>
+    </row>
+    <row r="320" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A320"/>
+    </row>
+    <row r="321" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A321"/>
+    </row>
+    <row r="322" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A322"/>
+    </row>
+    <row r="323" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A323"/>
+    </row>
+    <row r="324" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A324"/>
+    </row>
+    <row r="325" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A325"/>
+    </row>
+    <row r="326" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A326"/>
+    </row>
+    <row r="327" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A327"/>
+    </row>
+    <row r="328" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A328"/>
+    </row>
+    <row r="329" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A329"/>
+    </row>
+    <row r="330" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A330"/>
+    </row>
+    <row r="331" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A331"/>
+    </row>
+    <row r="332" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A332"/>
+    </row>
+    <row r="333" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A333"/>
+    </row>
+    <row r="334" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A334"/>
+    </row>
+    <row r="335" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A335"/>
+    </row>
+    <row r="336" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A336"/>
+    </row>
+    <row r="337" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A337"/>
+    </row>
+    <row r="338" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A338"/>
+    </row>
+    <row r="339" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A339"/>
+    </row>
+    <row r="340" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A340"/>
+    </row>
+    <row r="341" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A341"/>
+    </row>
+    <row r="342" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A342"/>
+    </row>
+    <row r="343" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A343"/>
+    </row>
+    <row r="344" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A344"/>
+    </row>
+    <row r="345" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A345"/>
+    </row>
+    <row r="346" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A346"/>
+    </row>
+    <row r="347" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A347"/>
+    </row>
+    <row r="348" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A348"/>
+    </row>
+    <row r="349" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A349"/>
+    </row>
+    <row r="350" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A350"/>
+    </row>
+    <row r="351" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A351"/>
+    </row>
+    <row r="352" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A352"/>
+    </row>
+    <row r="353" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A353"/>
+    </row>
+    <row r="354" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A354"/>
+    </row>
+    <row r="355" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A355"/>
+    </row>
+    <row r="356" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A356"/>
+    </row>
+    <row r="357" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A357"/>
+    </row>
+    <row r="358" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A358"/>
+    </row>
+    <row r="359" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A359"/>
+    </row>
+    <row r="360" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A360"/>
+    </row>
+    <row r="361" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A361"/>
+    </row>
+    <row r="362" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A362"/>
+    </row>
+    <row r="363" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A363"/>
+    </row>
+    <row r="364" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A364"/>
+    </row>
+    <row r="365" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A365"/>
+    </row>
+    <row r="366" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A366"/>
+    </row>
+    <row r="367" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A367"/>
+    </row>
+    <row r="368" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A368"/>
+    </row>
+    <row r="369" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A369"/>
+    </row>
+    <row r="370" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A370"/>
+    </row>
+    <row r="371" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A371"/>
+    </row>
+    <row r="372" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A372"/>
+    </row>
+    <row r="373" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A373"/>
+    </row>
+    <row r="374" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A374"/>
+    </row>
+    <row r="375" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A375"/>
+    </row>
+    <row r="376" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A376"/>
+    </row>
+    <row r="377" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A377"/>
+    </row>
+    <row r="378" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A378"/>
+    </row>
+    <row r="379" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A379"/>
+    </row>
+    <row r="380" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A380"/>
+    </row>
+    <row r="381" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A381"/>
+    </row>
+    <row r="382" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A382"/>
+    </row>
+    <row r="383" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A383"/>
+    </row>
+    <row r="384" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A384"/>
+    </row>
+    <row r="385" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A385"/>
+    </row>
+    <row r="386" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A386"/>
+    </row>
+    <row r="387" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A387"/>
+    </row>
+    <row r="388" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A388"/>
+    </row>
+    <row r="389" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A389"/>
+    </row>
+    <row r="390" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A390"/>
+    </row>
+    <row r="391" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A391"/>
+    </row>
+    <row r="392" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A392"/>
+    </row>
+    <row r="393" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A393"/>
+    </row>
+    <row r="394" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A394"/>
+    </row>
+    <row r="395" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A395"/>
+    </row>
+    <row r="396" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A396"/>
+    </row>
+    <row r="397" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A397"/>
+    </row>
+    <row r="398" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A398"/>
+    </row>
+    <row r="399" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A399"/>
+    </row>
+    <row r="400" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A400"/>
+    </row>
+    <row r="401" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A401"/>
+    </row>
+    <row r="402" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A402"/>
+    </row>
+    <row r="403" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A403"/>
+    </row>
+    <row r="404" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A404"/>
+    </row>
+    <row r="405" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A405"/>
+    </row>
+    <row r="406" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A406"/>
+    </row>
+    <row r="407" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A407"/>
+    </row>
+    <row r="408" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A408"/>
+    </row>
+    <row r="409" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A409"/>
+    </row>
+    <row r="410" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A410"/>
+    </row>
+    <row r="411" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A411"/>
+    </row>
+    <row r="412" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A412"/>
+    </row>
+    <row r="413" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A413"/>
+    </row>
+    <row r="414" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A414"/>
+    </row>
+    <row r="415" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A415"/>
+    </row>
+    <row r="416" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A416"/>
+    </row>
+    <row r="417" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A417"/>
+    </row>
+    <row r="418" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A418"/>
+    </row>
+    <row r="419" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A419"/>
+    </row>
+    <row r="420" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A420"/>
+    </row>
+    <row r="421" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A421"/>
+    </row>
+    <row r="422" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A422"/>
+    </row>
+    <row r="423" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A423"/>
+    </row>
+    <row r="424" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A424"/>
+    </row>
+    <row r="425" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A425"/>
+    </row>
+    <row r="426" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A426"/>
+    </row>
+    <row r="427" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A427"/>
+    </row>
+    <row r="428" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A428"/>
+    </row>
+    <row r="429" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A429"/>
+    </row>
+    <row r="430" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A430"/>
+    </row>
+    <row r="431" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A431"/>
+    </row>
+    <row r="432" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A432"/>
+    </row>
+    <row r="433" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A433"/>
+    </row>
+    <row r="434" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A434"/>
+    </row>
+    <row r="435" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A435"/>
+    </row>
+    <row r="436" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A436"/>
+    </row>
+    <row r="437" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A437"/>
+    </row>
+    <row r="438" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A438"/>
+    </row>
+    <row r="439" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A439"/>
+    </row>
+    <row r="440" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A440"/>
+    </row>
+    <row r="441" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A441"/>
+    </row>
+    <row r="442" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A442"/>
+    </row>
+    <row r="443" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A443"/>
+    </row>
+    <row r="444" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A444"/>
+    </row>
+    <row r="445" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A445"/>
+    </row>
+    <row r="446" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A446"/>
+    </row>
+    <row r="447" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A447"/>
+    </row>
+    <row r="448" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A448"/>
+    </row>
+    <row r="449" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A449"/>
+    </row>
+    <row r="450" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A450"/>
+    </row>
+    <row r="451" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A451"/>
+    </row>
+    <row r="452" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A452"/>
+    </row>
+    <row r="453" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A453"/>
+    </row>
+    <row r="454" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A454"/>
+    </row>
+    <row r="455" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A455"/>
+    </row>
+    <row r="456" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A456"/>
+    </row>
+    <row r="457" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A457"/>
+    </row>
+    <row r="458" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A458"/>
+    </row>
+    <row r="459" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A459"/>
+    </row>
+    <row r="460" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A460"/>
+    </row>
+    <row r="461" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A461"/>
+    </row>
+    <row r="462" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A462"/>
+    </row>
+    <row r="463" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A463"/>
+    </row>
+    <row r="464" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A464"/>
+    </row>
+    <row r="465" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A465"/>
+    </row>
+    <row r="466" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A466"/>
+    </row>
+    <row r="467" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A467"/>
+    </row>
+    <row r="468" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A468"/>
+    </row>
+    <row r="469" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A469"/>
+    </row>
+    <row r="470" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A470"/>
+    </row>
+    <row r="471" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A471"/>
+    </row>
+    <row r="472" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A472"/>
+    </row>
+    <row r="473" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A473"/>
+    </row>
+    <row r="474" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A474"/>
+    </row>
+    <row r="475" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A475"/>
+    </row>
+    <row r="476" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A476"/>
+    </row>
+    <row r="477" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A477"/>
+    </row>
+    <row r="478" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A478"/>
+    </row>
+    <row r="479" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A479"/>
+    </row>
+    <row r="480" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A480"/>
+    </row>
+    <row r="481" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A481"/>
+    </row>
+    <row r="482" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A482"/>
+    </row>
+    <row r="483" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A483"/>
+    </row>
+    <row r="484" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A484"/>
+    </row>
+    <row r="485" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A485"/>
+    </row>
+    <row r="486" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A486"/>
+    </row>
+    <row r="487" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A487"/>
+    </row>
+    <row r="488" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A488"/>
+    </row>
+    <row r="489" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A489"/>
+    </row>
+    <row r="490" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A490"/>
+    </row>
+    <row r="491" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A491"/>
+    </row>
+    <row r="492" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A492"/>
+    </row>
+    <row r="493" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A493"/>
+    </row>
+    <row r="494" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A494"/>
+    </row>
+    <row r="495" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A495"/>
+    </row>
+    <row r="496" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A496"/>
+    </row>
+    <row r="497" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A497"/>
+    </row>
+    <row r="498" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A498"/>
+    </row>
+    <row r="499" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A499"/>
+    </row>
+    <row r="500" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A500"/>
+    </row>
+    <row r="501" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A501"/>
+    </row>
+    <row r="502" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A502"/>
+    </row>
+    <row r="503" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A503"/>
+    </row>
+    <row r="504" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A504"/>
+    </row>
+    <row r="505" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A505"/>
+    </row>
+    <row r="506" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A506"/>
+    </row>
+    <row r="507" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A507"/>
+    </row>
+    <row r="508" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A508"/>
+    </row>
+    <row r="509" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A509"/>
+    </row>
+    <row r="510" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A510"/>
+    </row>
+    <row r="511" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A511"/>
+    </row>
+    <row r="512" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A512"/>
+    </row>
+    <row r="513" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A513"/>
+    </row>
+    <row r="514" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A514"/>
+    </row>
+    <row r="515" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A515"/>
+    </row>
+    <row r="516" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A516"/>
+    </row>
+    <row r="517" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A517"/>
+    </row>
+    <row r="518" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A518"/>
+    </row>
+    <row r="519" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A519"/>
+    </row>
+    <row r="520" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A520"/>
+    </row>
+    <row r="521" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A521"/>
+    </row>
+    <row r="522" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A522"/>
+    </row>
+    <row r="523" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A523"/>
+    </row>
+    <row r="524" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A524"/>
+    </row>
+    <row r="525" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A525"/>
+    </row>
+    <row r="526" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A526"/>
+    </row>
+    <row r="527" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A527"/>
+    </row>
+    <row r="528" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A528"/>
+    </row>
+    <row r="529" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A529"/>
+    </row>
+    <row r="530" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A530"/>
+    </row>
+    <row r="531" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A531"/>
+    </row>
+    <row r="532" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A532"/>
+    </row>
+    <row r="533" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A533"/>
+    </row>
+    <row r="534" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A534"/>
+    </row>
+    <row r="535" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A535"/>
+    </row>
+    <row r="536" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A536"/>
+    </row>
+    <row r="537" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A537"/>
+    </row>
+    <row r="538" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A538"/>
+    </row>
+    <row r="539" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A539"/>
+    </row>
+    <row r="540" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A540"/>
+    </row>
+    <row r="541" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A541"/>
+    </row>
+    <row r="542" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A542"/>
+    </row>
+    <row r="543" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A543"/>
+    </row>
+    <row r="544" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A544"/>
+    </row>
+    <row r="545" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A545"/>
+    </row>
+    <row r="546" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A546"/>
+    </row>
+    <row r="547" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A547"/>
+    </row>
+    <row r="548" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A548"/>
+    </row>
+    <row r="549" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A549"/>
+    </row>
+    <row r="550" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A550"/>
+    </row>
+    <row r="551" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A551"/>
+    </row>
+    <row r="552" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A552"/>
+    </row>
+    <row r="553" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A553"/>
+    </row>
+    <row r="554" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A554"/>
+    </row>
+    <row r="555" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A555"/>
+    </row>
+    <row r="556" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A556"/>
+    </row>
+    <row r="557" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A557"/>
+    </row>
+    <row r="558" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A558"/>
+    </row>
+    <row r="559" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A559"/>
+    </row>
+    <row r="560" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A560"/>
+    </row>
+    <row r="561" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A561"/>
+    </row>
+    <row r="562" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A562"/>
+    </row>
+    <row r="563" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A563"/>
+    </row>
+    <row r="564" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A564"/>
+    </row>
+    <row r="565" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A565"/>
+    </row>
+    <row r="566" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A566"/>
+    </row>
+    <row r="567" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A567"/>
+    </row>
+    <row r="568" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A568"/>
+    </row>
+    <row r="569" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A569"/>
+    </row>
+    <row r="570" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A570"/>
+    </row>
+    <row r="571" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A571"/>
+    </row>
+    <row r="572" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A572"/>
+    </row>
+    <row r="573" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A573"/>
+    </row>
+    <row r="574" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A574"/>
+    </row>
+    <row r="575" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A575"/>
+    </row>
+    <row r="576" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A576"/>
+    </row>
+    <row r="577" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A577"/>
+    </row>
+    <row r="578" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A578"/>
+    </row>
+    <row r="579" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A579"/>
+    </row>
+    <row r="580" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A580"/>
+    </row>
+    <row r="581" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A581"/>
+    </row>
+    <row r="582" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A582"/>
+    </row>
+    <row r="583" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A583"/>
+    </row>
+    <row r="584" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A584"/>
+    </row>
+    <row r="585" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A585"/>
+    </row>
+    <row r="586" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A586"/>
+    </row>
+    <row r="587" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A587"/>
+    </row>
+    <row r="588" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A588"/>
+    </row>
+    <row r="589" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A589"/>
+    </row>
+    <row r="590" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A590"/>
+    </row>
+    <row r="591" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A591"/>
+    </row>
+    <row r="592" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A592"/>
+    </row>
+    <row r="593" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A593"/>
+    </row>
+    <row r="594" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A594"/>
+    </row>
+    <row r="595" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A595"/>
+    </row>
+    <row r="596" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A596"/>
+    </row>
+    <row r="597" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A597"/>
+    </row>
+    <row r="598" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A598"/>
+    </row>
+    <row r="599" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A599"/>
+    </row>
+    <row r="600" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A600"/>
+    </row>
+    <row r="601" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A601"/>
+    </row>
+    <row r="602" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A602"/>
+    </row>
+    <row r="603" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A603"/>
+    </row>
+    <row r="604" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A604"/>
+    </row>
+    <row r="605" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A605"/>
+    </row>
+    <row r="606" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A606"/>
+    </row>
+    <row r="607" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A607"/>
+    </row>
+    <row r="608" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A608"/>
+    </row>
+    <row r="609" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A609"/>
+    </row>
+    <row r="610" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A610"/>
+    </row>
+    <row r="611" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A611"/>
+    </row>
+    <row r="612" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A612"/>
+    </row>
+    <row r="613" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A613"/>
+    </row>
+    <row r="614" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A614"/>
+    </row>
+    <row r="615" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A615"/>
+    </row>
+    <row r="616" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A616"/>
+    </row>
+    <row r="617" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A617"/>
+    </row>
+    <row r="618" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A618"/>
+    </row>
+    <row r="619" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A619"/>
+    </row>
+    <row r="620" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A620"/>
+    </row>
+    <row r="621" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A621"/>
+    </row>
+    <row r="622" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A622"/>
+    </row>
+    <row r="623" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A623"/>
+    </row>
+    <row r="624" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A624"/>
+    </row>
+    <row r="625" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A625"/>
+    </row>
+    <row r="626" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A626"/>
+    </row>
+    <row r="627" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A627"/>
+    </row>
+    <row r="628" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A628"/>
+    </row>
+    <row r="629" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A629"/>
+    </row>
+    <row r="630" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A630"/>
+    </row>
+    <row r="631" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A631"/>
+    </row>
+    <row r="632" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A632"/>
+    </row>
+    <row r="633" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A633"/>
+    </row>
+    <row r="634" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A634"/>
+    </row>
+    <row r="635" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A635"/>
+    </row>
+    <row r="636" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A636"/>
+    </row>
+    <row r="637" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A637"/>
+    </row>
+    <row r="638" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A638"/>
+    </row>
+    <row r="639" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A639"/>
+    </row>
+    <row r="640" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A640"/>
+    </row>
+    <row r="641" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A641"/>
+    </row>
+    <row r="642" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A642"/>
+    </row>
+    <row r="643" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A643"/>
+    </row>
+    <row r="644" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A644"/>
+    </row>
+    <row r="645" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A645"/>
+    </row>
+    <row r="646" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A646"/>
+    </row>
+    <row r="647" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A647"/>
+    </row>
+    <row r="648" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A648"/>
+    </row>
+    <row r="649" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A649"/>
+    </row>
+    <row r="650" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A650"/>
+    </row>
+    <row r="651" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A651"/>
+    </row>
+    <row r="652" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A652"/>
+    </row>
+    <row r="653" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A653"/>
+    </row>
+    <row r="654" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A654"/>
+    </row>
+    <row r="655" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A655"/>
+    </row>
+    <row r="656" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A656"/>
+    </row>
+    <row r="657" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A657"/>
+    </row>
+    <row r="658" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A658"/>
+    </row>
+    <row r="659" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A659"/>
+    </row>
+    <row r="660" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A660"/>
+    </row>
+    <row r="661" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A661"/>
+    </row>
+    <row r="662" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A662"/>
+    </row>
+    <row r="663" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A663"/>
+    </row>
+    <row r="664" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A664"/>
+    </row>
+    <row r="665" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A665"/>
+    </row>
+    <row r="666" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A666"/>
+    </row>
+    <row r="667" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A667"/>
+    </row>
+    <row r="668" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A668"/>
+    </row>
+    <row r="669" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A669"/>
+    </row>
+    <row r="670" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A670"/>
+    </row>
+    <row r="671" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A671"/>
+    </row>
+    <row r="672" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A672"/>
+    </row>
+    <row r="673" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A673"/>
+    </row>
+    <row r="674" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A674"/>
+    </row>
+    <row r="675" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A675"/>
+    </row>
+    <row r="676" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A676"/>
+    </row>
+    <row r="677" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A677"/>
+    </row>
+    <row r="678" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A678"/>
+    </row>
+    <row r="679" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A679"/>
+    </row>
+    <row r="680" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A680"/>
+    </row>
+    <row r="681" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A681"/>
+    </row>
+    <row r="682" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A682"/>
+    </row>
+    <row r="683" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A683"/>
+    </row>
+    <row r="684" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A684"/>
+    </row>
+    <row r="685" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A685"/>
+    </row>
+    <row r="686" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A686"/>
+    </row>
+    <row r="687" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A687"/>
+    </row>
+    <row r="688" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A688"/>
+    </row>
+    <row r="689" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A689"/>
+    </row>
+    <row r="690" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A690"/>
+    </row>
+    <row r="691" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A691"/>
+    </row>
+    <row r="692" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A692"/>
+    </row>
+    <row r="693" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A693"/>
+    </row>
+    <row r="694" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A694"/>
+    </row>
+    <row r="695" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A695"/>
+    </row>
+    <row r="696" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A696"/>
+    </row>
+    <row r="697" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A697"/>
+    </row>
+    <row r="698" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A698"/>
+    </row>
+    <row r="699" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A699"/>
+    </row>
+    <row r="700" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A700"/>
+    </row>
+    <row r="701" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A701"/>
+    </row>
+    <row r="702" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A702"/>
+    </row>
+    <row r="703" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A703"/>
+    </row>
+    <row r="704" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A704"/>
+    </row>
+    <row r="705" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A705"/>
+    </row>
+    <row r="706" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A706"/>
+    </row>
+    <row r="707" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A707"/>
+    </row>
+    <row r="708" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A708"/>
+    </row>
+    <row r="709" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A709"/>
+    </row>
+    <row r="710" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A710"/>
+    </row>
+    <row r="711" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A711"/>
+    </row>
+    <row r="712" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A712"/>
+    </row>
+    <row r="713" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A713"/>
+    </row>
+    <row r="714" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A714"/>
+    </row>
+    <row r="715" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A715"/>
+    </row>
+    <row r="716" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A716"/>
+    </row>
+    <row r="717" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A717"/>
+    </row>
+    <row r="718" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A718"/>
+    </row>
+    <row r="719" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A719"/>
+    </row>
+    <row r="720" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A720"/>
+    </row>
+    <row r="721" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A721"/>
+    </row>
+    <row r="722" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A722"/>
+    </row>
+    <row r="723" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A723"/>
+    </row>
+    <row r="724" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A724"/>
+    </row>
+    <row r="725" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A725"/>
+    </row>
+    <row r="726" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A726"/>
+    </row>
+    <row r="727" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A727"/>
+    </row>
+    <row r="728" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A728"/>
+    </row>
+    <row r="729" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A729"/>
+    </row>
+    <row r="730" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A730"/>
+    </row>
+    <row r="731" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A731"/>
+    </row>
+    <row r="732" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A732"/>
+    </row>
+    <row r="733" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A733"/>
+    </row>
+    <row r="734" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A734"/>
+    </row>
+    <row r="735" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A735"/>
+    </row>
+    <row r="736" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A736"/>
+    </row>
+    <row r="737" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A737"/>
+    </row>
+    <row r="738" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A738"/>
+    </row>
+    <row r="739" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A739"/>
+    </row>
+    <row r="740" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A740"/>
+    </row>
+    <row r="741" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A741"/>
+    </row>
+    <row r="742" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A742"/>
+    </row>
+    <row r="743" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A743"/>
+    </row>
+    <row r="744" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A744"/>
+    </row>
+    <row r="745" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A745"/>
+    </row>
+    <row r="746" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A746"/>
+    </row>
+    <row r="747" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A747"/>
+    </row>
+    <row r="748" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A748"/>
+    </row>
+    <row r="749" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A749"/>
+    </row>
+    <row r="750" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A750"/>
+    </row>
+    <row r="751" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A751"/>
+    </row>
+    <row r="752" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A752"/>
+    </row>
+    <row r="753" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A753"/>
+    </row>
+    <row r="754" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A754"/>
+    </row>
+    <row r="755" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A755"/>
+    </row>
+    <row r="756" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A756"/>
+    </row>
+    <row r="757" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A757"/>
+    </row>
+    <row r="758" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A758"/>
+    </row>
+    <row r="759" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A759"/>
+    </row>
+    <row r="760" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A760"/>
+    </row>
+    <row r="761" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A761"/>
+    </row>
+    <row r="762" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A762"/>
+    </row>
+    <row r="763" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A763"/>
+    </row>
+    <row r="764" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A764"/>
+    </row>
+    <row r="765" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A765"/>
+    </row>
+    <row r="766" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A766"/>
+    </row>
+    <row r="767" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A767"/>
+    </row>
+    <row r="768" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A768"/>
+    </row>
+    <row r="769" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A769"/>
+    </row>
+    <row r="770" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A770"/>
+    </row>
+    <row r="771" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A771"/>
+    </row>
+    <row r="772" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A772"/>
+    </row>
+    <row r="773" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A773"/>
+    </row>
+    <row r="774" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A774"/>
+    </row>
+    <row r="775" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A775"/>
+    </row>
+    <row r="776" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A776"/>
+    </row>
+    <row r="777" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A777"/>
+    </row>
+    <row r="778" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A778"/>
+    </row>
+    <row r="779" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A779"/>
+    </row>
+    <row r="780" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A780"/>
+    </row>
+    <row r="781" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A781"/>
+    </row>
+    <row r="782" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A782"/>
+    </row>
+    <row r="783" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A783"/>
+    </row>
+    <row r="784" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A784"/>
+    </row>
+    <row r="785" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A785"/>
+    </row>
+    <row r="786" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A786"/>
+    </row>
+    <row r="787" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A787"/>
+    </row>
+    <row r="788" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A788"/>
+    </row>
+    <row r="789" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A789"/>
+    </row>
+    <row r="790" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A790"/>
+    </row>
+    <row r="791" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A791"/>
+    </row>
+    <row r="792" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A792"/>
+    </row>
+    <row r="793" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A793"/>
+    </row>
+    <row r="794" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A794"/>
+    </row>
+    <row r="795" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A795"/>
+    </row>
+    <row r="796" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A796"/>
+    </row>
+    <row r="797" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A797"/>
+    </row>
+    <row r="798" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A798"/>
+    </row>
+    <row r="799" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A799"/>
+    </row>
+    <row r="800" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A800"/>
+    </row>
+    <row r="801" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A801"/>
+    </row>
+    <row r="802" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A802"/>
+    </row>
+    <row r="803" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A803"/>
+    </row>
+    <row r="804" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A804"/>
+    </row>
+    <row r="805" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A805"/>
+    </row>
+    <row r="806" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A806"/>
+    </row>
+    <row r="807" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A807"/>
+    </row>
+    <row r="808" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A808"/>
+    </row>
+    <row r="809" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A809"/>
+    </row>
+    <row r="810" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A810"/>
+    </row>
+    <row r="811" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A811"/>
+    </row>
+    <row r="812" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A812"/>
+    </row>
+    <row r="813" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A813"/>
+    </row>
+    <row r="814" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A814"/>
+    </row>
+    <row r="815" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A815"/>
+    </row>
+    <row r="816" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A816"/>
+    </row>
+    <row r="817" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A817"/>
+    </row>
+    <row r="818" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A818"/>
+    </row>
+    <row r="819" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A819"/>
+    </row>
+    <row r="820" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A820"/>
+    </row>
+    <row r="821" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A821"/>
+    </row>
+    <row r="822" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A822"/>
+    </row>
+    <row r="823" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A823"/>
+    </row>
+    <row r="824" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A824"/>
+    </row>
+    <row r="825" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A825"/>
+    </row>
+    <row r="826" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A826"/>
+    </row>
+    <row r="827" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A827"/>
+    </row>
+    <row r="828" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A828"/>
+    </row>
+    <row r="829" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A829"/>
+    </row>
+    <row r="830" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A830"/>
+    </row>
+    <row r="831" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A831"/>
+    </row>
+    <row r="832" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A832"/>
+    </row>
+    <row r="833" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A833"/>
+    </row>
+    <row r="834" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A834"/>
+    </row>
+    <row r="835" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A835"/>
+    </row>
+    <row r="836" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A836"/>
+    </row>
+    <row r="837" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A837"/>
+    </row>
+    <row r="838" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A838"/>
+    </row>
+    <row r="839" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A839"/>
+    </row>
+    <row r="840" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A840"/>
+    </row>
+    <row r="841" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A841"/>
+    </row>
+    <row r="842" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A842"/>
+    </row>
+    <row r="843" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A843"/>
+    </row>
+    <row r="844" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A844"/>
+    </row>
+    <row r="845" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A845"/>
+    </row>
+    <row r="846" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A846"/>
+    </row>
+    <row r="847" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A847"/>
+    </row>
+    <row r="848" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A848"/>
+    </row>
+    <row r="849" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A849"/>
+    </row>
+    <row r="850" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A850"/>
+    </row>
+    <row r="851" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A851"/>
+    </row>
+    <row r="852" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A852"/>
+    </row>
+    <row r="853" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A853"/>
+    </row>
+    <row r="854" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A854"/>
+    </row>
+    <row r="855" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A855"/>
+    </row>
+    <row r="856" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A856"/>
+    </row>
+    <row r="857" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A857"/>
+    </row>
+    <row r="858" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A858"/>
+    </row>
+    <row r="859" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A859"/>
+    </row>
+    <row r="860" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A860"/>
+    </row>
+    <row r="861" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A861"/>
+    </row>
+    <row r="862" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A862"/>
+    </row>
+    <row r="863" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A863"/>
+    </row>
+    <row r="864" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A864"/>
+    </row>
+    <row r="865" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A865"/>
+    </row>
+    <row r="866" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A866"/>
+    </row>
+    <row r="867" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A867"/>
+    </row>
+    <row r="868" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A868"/>
+    </row>
+    <row r="869" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A869"/>
+    </row>
+    <row r="870" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A870"/>
+    </row>
+    <row r="871" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A871"/>
+    </row>
+    <row r="872" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A872"/>
+    </row>
+    <row r="873" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A873"/>
+    </row>
+    <row r="874" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A874"/>
+    </row>
+    <row r="875" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A875"/>
+    </row>
+    <row r="876" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A876"/>
+    </row>
+    <row r="877" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A877"/>
+    </row>
+    <row r="878" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A878"/>
+    </row>
+    <row r="879" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A879"/>
+    </row>
+    <row r="880" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A880"/>
+    </row>
+    <row r="881" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A881"/>
+    </row>
+    <row r="882" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A882"/>
+    </row>
+    <row r="883" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A883"/>
+    </row>
+    <row r="884" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A884"/>
+    </row>
+    <row r="885" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A885"/>
+    </row>
+    <row r="886" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A886"/>
+    </row>
+    <row r="887" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A887"/>
+    </row>
+    <row r="888" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A888"/>
+    </row>
+    <row r="889" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A889"/>
+    </row>
+    <row r="890" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A890"/>
+    </row>
+    <row r="891" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A891"/>
+    </row>
+    <row r="892" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A892"/>
+    </row>
+    <row r="893" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A893"/>
+    </row>
+    <row r="894" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A894"/>
+    </row>
+    <row r="895" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A895"/>
+    </row>
+    <row r="896" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A896"/>
+    </row>
+    <row r="897" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A897"/>
+    </row>
+    <row r="898" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A898"/>
+    </row>
+    <row r="899" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A899"/>
+    </row>
+    <row r="900" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A900"/>
+    </row>
+    <row r="901" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A901"/>
+    </row>
+    <row r="902" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A902"/>
+    </row>
+    <row r="903" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A903"/>
+    </row>
+    <row r="904" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A904"/>
+    </row>
+    <row r="905" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A905"/>
+    </row>
+    <row r="906" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A906"/>
+    </row>
+    <row r="907" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A907"/>
+    </row>
+    <row r="908" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A908"/>
+    </row>
+    <row r="909" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A909"/>
+    </row>
+    <row r="910" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A910"/>
+    </row>
+    <row r="911" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A911"/>
+    </row>
+    <row r="912" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A912"/>
+    </row>
+    <row r="913" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A913"/>
+    </row>
+    <row r="914" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A914"/>
+    </row>
+    <row r="915" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A915"/>
+    </row>
+    <row r="916" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A916"/>
+    </row>
+    <row r="917" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A917"/>
+    </row>
+    <row r="918" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A918"/>
+    </row>
+    <row r="919" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A919"/>
+    </row>
+    <row r="920" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A920"/>
+    </row>
+    <row r="921" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A921"/>
+    </row>
+    <row r="922" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A922"/>
+    </row>
+    <row r="923" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A923"/>
+    </row>
+    <row r="924" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A924"/>
+    </row>
+    <row r="925" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A925"/>
+    </row>
+    <row r="926" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A926"/>
+    </row>
+    <row r="927" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A927"/>
+    </row>
+    <row r="928" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A928"/>
+    </row>
+    <row r="929" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A929"/>
+    </row>
+    <row r="930" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A930"/>
+    </row>
+    <row r="931" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A931"/>
+    </row>
+    <row r="932" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A932"/>
+    </row>
+    <row r="933" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A933"/>
+    </row>
+    <row r="934" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A934"/>
+    </row>
+    <row r="935" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A935"/>
+    </row>
+    <row r="936" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A936"/>
+    </row>
+    <row r="937" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A937"/>
+    </row>
+    <row r="938" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A938"/>
+    </row>
+    <row r="939" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A939"/>
+    </row>
+    <row r="940" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A940"/>
+    </row>
+    <row r="941" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A941"/>
+    </row>
+    <row r="942" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A942"/>
+    </row>
+    <row r="943" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A943"/>
+    </row>
+    <row r="944" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A944"/>
+    </row>
+    <row r="945" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A945"/>
+    </row>
+    <row r="946" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A946"/>
+    </row>
+    <row r="947" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A947"/>
+    </row>
+    <row r="948" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A948"/>
+    </row>
+    <row r="949" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A949"/>
+    </row>
+    <row r="950" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A950"/>
+    </row>
+    <row r="951" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A951"/>
+    </row>
+    <row r="952" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A952"/>
+    </row>
+    <row r="953" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A953"/>
+    </row>
+    <row r="954" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A954"/>
+    </row>
+    <row r="955" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A955"/>
+    </row>
+    <row r="956" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A956"/>
+    </row>
+    <row r="957" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A957"/>
+    </row>
+    <row r="958" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A958"/>
+    </row>
+    <row r="959" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A959"/>
+    </row>
+    <row r="960" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A960"/>
+    </row>
+    <row r="961" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A961"/>
+    </row>
+    <row r="962" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A962"/>
+    </row>
+    <row r="963" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A963"/>
+    </row>
+    <row r="964" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A964"/>
+    </row>
+    <row r="965" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A965"/>
+    </row>
+    <row r="966" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A966"/>
+    </row>
+    <row r="967" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A967"/>
+    </row>
+    <row r="968" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A968"/>
+    </row>
+    <row r="969" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A969"/>
+    </row>
+    <row r="970" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A970"/>
+    </row>
+    <row r="971" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A971"/>
+    </row>
+    <row r="972" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A972"/>
+    </row>
+    <row r="973" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A973"/>
+    </row>
+    <row r="974" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A974"/>
+    </row>
+    <row r="975" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A975"/>
+    </row>
+    <row r="976" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A976"/>
+    </row>
+    <row r="977" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A977"/>
+    </row>
+    <row r="978" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A978"/>
+    </row>
+    <row r="979" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A979"/>
+    </row>
+    <row r="980" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A980"/>
+    </row>
+    <row r="981" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A981"/>
+    </row>
+    <row r="982" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A982"/>
+    </row>
+    <row r="983" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A983"/>
+    </row>
+    <row r="984" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A984"/>
+    </row>
+    <row r="985" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A985"/>
+    </row>
+    <row r="986" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A986"/>
+    </row>
+    <row r="987" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A987"/>
+    </row>
+    <row r="988" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A988"/>
+    </row>
+    <row r="989" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A989"/>
+    </row>
+    <row r="990" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A990"/>
+    </row>
+    <row r="991" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A991"/>
+    </row>
+    <row r="992" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A992"/>
+    </row>
+    <row r="993" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A993"/>
+    </row>
+    <row r="994" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A994"/>
+    </row>
+    <row r="995" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A995"/>
+    </row>
+    <row r="996" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A996"/>
+    </row>
+    <row r="997" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A997"/>
+    </row>
+    <row r="998" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A998"/>
+    </row>
+    <row r="999" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A999"/>
+    </row>
+    <row r="1000" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1000"/>
+    </row>
+    <row r="1001" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1001"/>
+    </row>
+    <row r="1002" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1002"/>
+    </row>
+    <row r="1003" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1003"/>
+    </row>
+    <row r="1004" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1004"/>
+    </row>
+    <row r="1005" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1005"/>
+    </row>
+    <row r="1006" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1006"/>
+    </row>
+    <row r="1007" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1007"/>
+    </row>
+    <row r="1008" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1008"/>
+    </row>
+    <row r="1009" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1009"/>
+    </row>
+    <row r="1010" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1010"/>
+    </row>
+    <row r="1011" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1011"/>
+    </row>
+    <row r="1012" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1012"/>
+    </row>
+    <row r="1013" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1013"/>
+    </row>
+    <row r="1014" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1014"/>
+    </row>
+    <row r="1015" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1015"/>
+    </row>
+    <row r="1016" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1016"/>
+    </row>
+    <row r="1017" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1017"/>
+    </row>
+    <row r="1018" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1018"/>
+    </row>
+    <row r="1019" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1019"/>
+    </row>
+    <row r="1020" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1020"/>
+    </row>
+    <row r="1021" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1021"/>
+    </row>
+    <row r="1022" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1022"/>
+    </row>
+    <row r="1023" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1023"/>
+    </row>
+    <row r="1024" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1024"/>
+    </row>
+    <row r="1025" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1025"/>
+    </row>
+    <row r="1026" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1026"/>
+    </row>
+    <row r="1027" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1027"/>
+    </row>
+    <row r="1028" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1028"/>
+    </row>
+    <row r="1029" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1029"/>
+    </row>
+    <row r="1030" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1030"/>
+    </row>
+    <row r="1031" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1031"/>
+    </row>
+    <row r="1032" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1032"/>
+    </row>
+    <row r="1033" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1033"/>
+    </row>
+    <row r="1034" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1034"/>
+    </row>
+    <row r="1035" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1035"/>
+    </row>
+    <row r="1036" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1036"/>
+    </row>
+    <row r="1037" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1037"/>
+    </row>
+    <row r="1038" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1038"/>
+    </row>
+    <row r="1039" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1039"/>
+    </row>
+    <row r="1040" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1040"/>
+    </row>
+    <row r="1041" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1041"/>
+    </row>
+    <row r="1042" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1042"/>
+    </row>
+    <row r="1043" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1043"/>
+    </row>
+    <row r="1044" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1044"/>
+    </row>
+    <row r="1045" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1045"/>
+    </row>
+    <row r="1046" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1046"/>
+    </row>
+    <row r="1047" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1047"/>
+    </row>
+    <row r="1048" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1048"/>
+    </row>
+    <row r="1049" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1049"/>
+    </row>
+    <row r="1050" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1050"/>
+    </row>
+    <row r="1051" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1051"/>
+    </row>
+    <row r="1052" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1052"/>
+    </row>
+    <row r="1053" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1053"/>
+    </row>
+    <row r="1054" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1054"/>
+    </row>
+    <row r="1055" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1055"/>
+    </row>
+    <row r="1056" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1056"/>
+    </row>
+    <row r="1057" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1057"/>
+    </row>
+    <row r="1058" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1058"/>
+    </row>
+    <row r="1059" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1059"/>
+    </row>
+    <row r="1060" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1060"/>
+    </row>
+    <row r="1061" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1061"/>
+    </row>
+    <row r="1062" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1062"/>
+    </row>
+    <row r="1063" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1063"/>
+    </row>
+    <row r="1064" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1064"/>
+    </row>
+    <row r="1065" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1065"/>
+    </row>
+    <row r="1066" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1066"/>
+    </row>
+    <row r="1067" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1067"/>
+    </row>
+    <row r="1068" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1068"/>
+    </row>
+    <row r="1069" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1069"/>
+    </row>
+    <row r="1070" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1070"/>
+    </row>
+    <row r="1071" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1071"/>
+    </row>
+    <row r="1072" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1072"/>
+    </row>
+    <row r="1073" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1073"/>
+    </row>
+    <row r="1074" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1074"/>
+    </row>
+    <row r="1075" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1075"/>
+    </row>
+    <row r="1076" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1076"/>
+    </row>
+    <row r="1077" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1077"/>
+    </row>
+    <row r="1078" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1078"/>
+    </row>
+    <row r="1079" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1079"/>
+    </row>
+    <row r="1080" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1080"/>
+    </row>
+    <row r="1081" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1081"/>
+    </row>
+    <row r="1082" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1082"/>
+    </row>
+    <row r="1083" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1083"/>
+    </row>
+    <row r="1084" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1084"/>
+    </row>
+    <row r="1085" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1085"/>
+    </row>
+    <row r="1086" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1086"/>
+    </row>
+    <row r="1087" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1087"/>
+    </row>
+    <row r="1088" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1088"/>
+    </row>
+    <row r="1089" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1089"/>
+    </row>
+    <row r="1090" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1090"/>
+    </row>
+    <row r="1091" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1091"/>
+    </row>
+    <row r="1092" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1092"/>
+    </row>
+    <row r="1093" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1093"/>
+    </row>
+    <row r="1094" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1094"/>
+    </row>
+    <row r="1095" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1095"/>
+    </row>
+    <row r="1096" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1096"/>
+    </row>
+    <row r="1097" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1097"/>
+    </row>
+    <row r="1098" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1098"/>
+    </row>
+    <row r="1099" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1099"/>
+    </row>
+    <row r="1100" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1100"/>
+    </row>
+    <row r="1101" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1101"/>
+    </row>
+    <row r="1102" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1102"/>
+    </row>
+    <row r="1103" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1103"/>
+    </row>
+    <row r="1104" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1104"/>
+    </row>
+    <row r="1105" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1105"/>
+    </row>
+    <row r="1106" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1106"/>
+    </row>
+    <row r="1107" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1107"/>
+    </row>
+    <row r="1108" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1108"/>
+    </row>
+    <row r="1109" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1109"/>
+    </row>
+    <row r="1110" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1110"/>
+    </row>
+    <row r="1111" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1111"/>
+    </row>
+    <row r="1112" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1112"/>
+    </row>
+    <row r="1113" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1113"/>
+    </row>
+    <row r="1114" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1114"/>
+    </row>
+    <row r="1115" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1115"/>
+    </row>
+    <row r="1116" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1116"/>
+    </row>
+    <row r="1117" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1117"/>
+    </row>
+    <row r="1118" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1118"/>
+    </row>
+    <row r="1119" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1119"/>
+    </row>
+    <row r="1120" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1120"/>
+    </row>
+    <row r="1121" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1121"/>
+    </row>
+    <row r="1122" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1122"/>
+    </row>
+    <row r="1123" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1123"/>
+    </row>
+    <row r="1124" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1124"/>
+    </row>
+    <row r="1125" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1125"/>
+    </row>
+    <row r="1126" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1126"/>
+    </row>
+    <row r="1127" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1127"/>
+    </row>
+    <row r="1128" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1128"/>
+    </row>
+    <row r="1129" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1129"/>
+    </row>
+    <row r="1130" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1130"/>
+    </row>
+    <row r="1131" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1131"/>
+    </row>
+    <row r="1132" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1132"/>
+    </row>
+    <row r="1133" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1133"/>
+    </row>
+    <row r="1134" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1134"/>
+    </row>
+    <row r="1135" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1135"/>
+    </row>
+    <row r="1136" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1136"/>
+    </row>
+    <row r="1137" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1137"/>
+    </row>
+    <row r="1138" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1138"/>
+    </row>
+    <row r="1139" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1139"/>
+    </row>
+    <row r="1140" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1140"/>
+    </row>
+    <row r="1141" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1141"/>
+    </row>
+    <row r="1142" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1142"/>
+    </row>
+    <row r="1143" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1143"/>
+    </row>
+    <row r="1144" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1144"/>
+    </row>
+    <row r="1145" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1145"/>
+    </row>
+    <row r="1146" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1146"/>
+    </row>
+    <row r="1147" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1147"/>
+    </row>
+    <row r="1148" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1148"/>
+    </row>
+    <row r="1149" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1149"/>
+    </row>
+    <row r="1150" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1150"/>
+    </row>
+    <row r="1151" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1151"/>
+    </row>
+    <row r="1152" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1152"/>
+    </row>
+    <row r="1153" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1153"/>
+    </row>
+    <row r="1154" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1154"/>
+    </row>
+    <row r="1155" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1155"/>
+    </row>
+    <row r="1156" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1156"/>
+    </row>
+    <row r="1157" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1157"/>
+    </row>
+    <row r="1158" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1158"/>
+    </row>
+    <row r="1159" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1159"/>
+    </row>
+    <row r="1160" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1160"/>
+    </row>
+    <row r="1161" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1161"/>
+    </row>
+    <row r="1162" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1162"/>
+    </row>
+    <row r="1163" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1163"/>
+    </row>
+    <row r="1164" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1164"/>
+    </row>
+    <row r="1165" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1165"/>
+    </row>
+    <row r="1166" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1166"/>
+    </row>
+    <row r="1167" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1167"/>
+    </row>
+    <row r="1168" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1168"/>
+    </row>
+    <row r="1169" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1169"/>
+    </row>
+    <row r="1170" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1170"/>
+    </row>
+    <row r="1171" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1171"/>
+    </row>
+    <row r="1172" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1172"/>
+    </row>
+    <row r="1173" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1173"/>
+    </row>
+    <row r="1174" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1174"/>
+    </row>
+    <row r="1175" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1175"/>
+    </row>
+    <row r="1176" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1176"/>
+    </row>
+    <row r="1177" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1177"/>
+    </row>
+    <row r="1178" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1178"/>
+    </row>
+    <row r="1179" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1179"/>
+    </row>
+    <row r="1180" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1180"/>
+    </row>
+    <row r="1181" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1181"/>
+    </row>
+    <row r="1182" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1182"/>
+    </row>
+    <row r="1183" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1183"/>
+    </row>
+    <row r="1184" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1184"/>
+    </row>
+    <row r="1185" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1185"/>
+    </row>
+    <row r="1186" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1186"/>
+    </row>
+    <row r="1187" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1187"/>
+    </row>
+    <row r="1188" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1188"/>
+    </row>
+    <row r="1189" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1189"/>
+    </row>
+    <row r="1190" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1190"/>
+    </row>
+    <row r="1191" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1191"/>
+    </row>
+    <row r="1192" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1192"/>
+    </row>
+    <row r="1193" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1193"/>
+    </row>
+    <row r="1194" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1194"/>
+    </row>
+    <row r="1195" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1195"/>
+    </row>
+    <row r="1196" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1196"/>
+    </row>
+    <row r="1197" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1197"/>
+    </row>
+    <row r="1198" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1198"/>
+    </row>
+    <row r="1199" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1199"/>
+    </row>
+    <row r="1200" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1200"/>
+    </row>
+    <row r="1201" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1201"/>
+    </row>
+    <row r="1202" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1202"/>
+    </row>
+    <row r="1203" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1203"/>
+    </row>
+    <row r="1204" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1204"/>
+    </row>
+    <row r="1205" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1205"/>
+    </row>
+    <row r="1206" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1206"/>
+    </row>
+    <row r="1207" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1207"/>
+    </row>
+    <row r="1208" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1208"/>
+    </row>
+    <row r="1209" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1209"/>
+    </row>
+    <row r="1210" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1210"/>
+    </row>
+    <row r="1211" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1211"/>
+    </row>
+    <row r="1212" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1212"/>
+    </row>
+    <row r="1213" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1213"/>
+    </row>
+    <row r="1214" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1214"/>
+    </row>
+    <row r="1215" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1215"/>
+    </row>
+    <row r="1216" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1216"/>
+    </row>
+    <row r="1217" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1217"/>
+    </row>
+    <row r="1218" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1218"/>
+    </row>
+    <row r="1219" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1219"/>
+    </row>
+    <row r="1220" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1220"/>
+    </row>
+    <row r="1221" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1221"/>
+    </row>
+    <row r="1222" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1222"/>
+    </row>
+    <row r="1223" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1223"/>
+    </row>
+    <row r="1224" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1224"/>
+    </row>
+    <row r="1225" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1225"/>
+    </row>
+    <row r="1226" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1226"/>
+    </row>
+    <row r="1227" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1227"/>
+    </row>
+    <row r="1228" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1228"/>
+    </row>
+    <row r="1229" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1229"/>
+    </row>
+    <row r="1230" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1230"/>
+    </row>
+    <row r="1231" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1231"/>
+    </row>
+    <row r="1232" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1232"/>
+    </row>
+    <row r="1233" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1233"/>
+    </row>
+    <row r="1234" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1234"/>
+    </row>
+    <row r="1235" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1235"/>
+    </row>
+    <row r="1236" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1236"/>
+    </row>
+    <row r="1237" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1237"/>
+    </row>
+    <row r="1238" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1238"/>
+    </row>
+    <row r="1239" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1239"/>
+    </row>
+    <row r="1240" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1240"/>
+    </row>
+    <row r="1241" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1241"/>
+    </row>
+    <row r="1242" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1242"/>
+    </row>
+    <row r="1243" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1243"/>
+    </row>
+    <row r="1244" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1244"/>
+    </row>
+    <row r="1245" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1245"/>
+    </row>
+    <row r="1246" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1246"/>
+    </row>
+    <row r="1247" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1247"/>
+    </row>
+    <row r="1248" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1248"/>
+    </row>
+    <row r="1249" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1249"/>
+    </row>
+    <row r="1250" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1250"/>
+    </row>
+    <row r="1251" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1251"/>
+    </row>
+    <row r="1252" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1252"/>
+    </row>
+    <row r="1253" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1253"/>
+    </row>
+    <row r="1254" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1254"/>
+    </row>
+    <row r="1255" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1255"/>
+    </row>
+    <row r="1256" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1256"/>
+    </row>
+    <row r="1257" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1257"/>
+    </row>
+    <row r="1258" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1258"/>
+    </row>
+    <row r="1259" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1259"/>
+    </row>
+    <row r="1260" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1260"/>
+    </row>
+    <row r="1261" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1261"/>
+    </row>
+    <row r="1262" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1262"/>
+    </row>
+    <row r="1263" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1263"/>
+    </row>
+    <row r="1264" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1264"/>
+    </row>
+    <row r="1265" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1265"/>
+    </row>
+    <row r="1266" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1266"/>
+    </row>
+    <row r="1267" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1267"/>
+    </row>
+    <row r="1268" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1268"/>
+    </row>
+    <row r="1269" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1269"/>
+    </row>
+    <row r="1270" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1270"/>
+    </row>
+    <row r="1271" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1271"/>
+    </row>
+    <row r="1272" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1272"/>
+    </row>
+    <row r="1273" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1273"/>
+    </row>
+    <row r="1274" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1274"/>
+    </row>
+    <row r="1275" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1275"/>
+    </row>
+    <row r="1276" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1276"/>
+    </row>
+    <row r="1277" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1277"/>
+    </row>
+    <row r="1278" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1278"/>
+    </row>
+    <row r="1279" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1279"/>
+    </row>
+    <row r="1280" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1280"/>
+    </row>
+    <row r="1281" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1281"/>
+    </row>
+    <row r="1282" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1282"/>
+    </row>
+    <row r="1283" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1283"/>
+    </row>
+    <row r="1284" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1284"/>
+    </row>
+    <row r="1285" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1285"/>
+    </row>
+    <row r="1286" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1286"/>
+    </row>
+    <row r="1287" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1287"/>
+    </row>
+    <row r="1288" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1288"/>
+    </row>
+    <row r="1289" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1289"/>
+    </row>
+    <row r="1290" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1290"/>
+    </row>
+    <row r="1291" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1291"/>
+    </row>
+    <row r="1292" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1292"/>
+    </row>
+    <row r="1293" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1293"/>
+    </row>
+    <row r="1294" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1294"/>
+    </row>
+    <row r="1295" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1295"/>
+    </row>
+    <row r="1296" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1296"/>
+    </row>
+    <row r="1297" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1297"/>
+    </row>
+    <row r="1298" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1298"/>
+    </row>
+    <row r="1299" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1299"/>
+    </row>
+    <row r="1300" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1300"/>
+    </row>
+    <row r="1301" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1301"/>
+    </row>
+    <row r="1302" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1302"/>
+    </row>
+    <row r="1303" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1303"/>
+    </row>
+    <row r="1304" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1304"/>
+    </row>
+    <row r="1305" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1305"/>
+    </row>
+    <row r="1306" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1306"/>
+    </row>
+    <row r="1307" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1307"/>
+    </row>
+    <row r="1308" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1308"/>
+    </row>
+    <row r="1309" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1309"/>
+    </row>
+    <row r="1310" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1310"/>
+    </row>
+    <row r="1311" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1311"/>
+    </row>
+    <row r="1312" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1312"/>
+    </row>
+    <row r="1313" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1313"/>
+    </row>
+    <row r="1314" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1314"/>
+    </row>
+    <row r="1315" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1315"/>
+    </row>
+    <row r="1316" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1316"/>
+    </row>
+    <row r="1317" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1317"/>
+    </row>
+    <row r="1318" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1318"/>
+    </row>
+    <row r="1319" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1319"/>
+    </row>
+    <row r="1320" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1320"/>
+    </row>
+    <row r="1321" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1321"/>
+    </row>
+    <row r="1322" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1322"/>
+    </row>
+    <row r="1323" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1323"/>
+    </row>
+    <row r="1324" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1324"/>
+    </row>
+    <row r="1325" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1325"/>
+    </row>
+    <row r="1326" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1326"/>
+    </row>
+    <row r="1327" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1327"/>
+    </row>
+    <row r="1328" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1328"/>
+    </row>
+    <row r="1329" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1329"/>
+    </row>
+    <row r="1330" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1330"/>
+    </row>
+    <row r="1331" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1331"/>
+    </row>
+    <row r="1332" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1332"/>
+    </row>
+    <row r="1333" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1333"/>
+    </row>
+    <row r="1334" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1334"/>
+    </row>
+    <row r="1335" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1335"/>
+    </row>
+    <row r="1336" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1336"/>
+    </row>
+    <row r="1337" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1337"/>
+    </row>
+    <row r="1338" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1338"/>
+    </row>
+    <row r="1339" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1339"/>
+    </row>
+    <row r="1340" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1340"/>
+    </row>
+    <row r="1341" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1341"/>
+    </row>
+    <row r="1342" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1342"/>
+    </row>
+    <row r="1343" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1343"/>
+    </row>
+    <row r="1344" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1344"/>
+    </row>
+    <row r="1345" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1345"/>
+    </row>
+    <row r="1346" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1346"/>
+    </row>
+    <row r="1347" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1347"/>
+    </row>
+    <row r="1348" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1348"/>
+    </row>
+    <row r="1349" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1349"/>
+    </row>
+    <row r="1350" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1350"/>
+    </row>
+    <row r="1351" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1351"/>
+    </row>
+    <row r="1352" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1352"/>
+    </row>
+    <row r="1353" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1353"/>
+    </row>
+    <row r="1354" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1354"/>
+    </row>
+    <row r="1355" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1355"/>
+    </row>
+    <row r="1356" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1356"/>
+    </row>
+    <row r="1357" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1357"/>
+    </row>
+    <row r="1358" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1358"/>
+    </row>
+    <row r="1359" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1359"/>
+    </row>
+    <row r="1360" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1360"/>
+    </row>
+    <row r="1361" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1361"/>
+    </row>
+    <row r="1362" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1362"/>
+    </row>
+    <row r="1363" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1363"/>
+    </row>
+    <row r="1364" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1364"/>
+    </row>
+    <row r="1365" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1365"/>
+    </row>
+    <row r="1366" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1366"/>
+    </row>
+    <row r="1367" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1367"/>
+    </row>
+    <row r="1368" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1368"/>
+    </row>
+    <row r="1369" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1369"/>
+    </row>
+    <row r="1370" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1370"/>
+    </row>
+    <row r="1371" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1371"/>
+    </row>
+    <row r="1372" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1372"/>
+    </row>
+    <row r="1373" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1373"/>
+    </row>
+    <row r="1374" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1374"/>
+    </row>
+    <row r="1375" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1375"/>
+    </row>
+    <row r="1376" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1376"/>
+    </row>
+    <row r="1377" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1377"/>
+    </row>
+    <row r="1378" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1378"/>
+    </row>
+    <row r="1379" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1379"/>
+    </row>
+    <row r="1380" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1380"/>
+    </row>
+    <row r="1381" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1381"/>
+    </row>
+    <row r="1382" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1382"/>
+    </row>
+    <row r="1383" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1383"/>
+    </row>
+    <row r="1384" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1384"/>
+    </row>
+    <row r="1385" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1385"/>
+    </row>
+    <row r="1386" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1386"/>
+    </row>
+    <row r="1387" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1387"/>
+    </row>
+    <row r="1388" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1388"/>
+    </row>
+    <row r="1389" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1389"/>
+    </row>
+    <row r="1390" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1390"/>
+    </row>
+    <row r="1391" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1391"/>
+    </row>
+    <row r="1392" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1392"/>
+    </row>
+    <row r="1393" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1393"/>
+    </row>
+    <row r="1394" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1394"/>
+    </row>
+    <row r="1395" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1395"/>
+    </row>
+    <row r="1396" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1396"/>
+    </row>
+    <row r="1397" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1397"/>
+    </row>
+    <row r="1398" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1398"/>
+    </row>
+    <row r="1399" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1399"/>
+    </row>
+    <row r="1400" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1400"/>
+    </row>
+    <row r="1401" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1401"/>
+    </row>
+    <row r="1402" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1402"/>
+    </row>
+    <row r="1403" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1403"/>
+    </row>
+    <row r="1404" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1404"/>
+    </row>
+    <row r="1405" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1405"/>
+    </row>
+    <row r="1406" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1406"/>
+    </row>
+    <row r="1407" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1407"/>
+    </row>
+    <row r="1408" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1408"/>
+    </row>
+    <row r="1409" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1409"/>
+    </row>
+    <row r="1410" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1410"/>
+    </row>
+    <row r="1411" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1411"/>
+    </row>
+    <row r="1412" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1412"/>
+    </row>
+    <row r="1413" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1413"/>
+    </row>
+    <row r="1414" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1414"/>
+    </row>
+    <row r="1415" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1415"/>
+    </row>
+    <row r="1416" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1416"/>
+    </row>
+    <row r="1417" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1417"/>
+    </row>
+    <row r="1418" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1418"/>
+    </row>
+    <row r="1419" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1419"/>
+    </row>
+    <row r="1420" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1420"/>
+    </row>
+    <row r="1421" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1421"/>
+    </row>
+    <row r="1422" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1422"/>
+    </row>
+    <row r="1423" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1423"/>
+    </row>
+    <row r="1424" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1424"/>
+    </row>
+    <row r="1425" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1425"/>
+    </row>
+    <row r="1426" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1426"/>
+    </row>
+    <row r="1427" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1427"/>
+    </row>
+    <row r="1428" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1428"/>
+    </row>
+    <row r="1429" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1429"/>
+    </row>
+    <row r="1430" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1430"/>
+    </row>
+    <row r="1431" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1431"/>
+    </row>
+    <row r="1432" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1432"/>
+    </row>
+    <row r="1433" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1433"/>
+    </row>
+    <row r="1434" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1434"/>
+    </row>
+    <row r="1435" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1435"/>
+    </row>
+    <row r="1436" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1436"/>
+    </row>
+    <row r="1437" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1437"/>
+    </row>
+    <row r="1438" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1438"/>
+    </row>
+    <row r="1439" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1439"/>
+    </row>
+    <row r="1440" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1440"/>
+    </row>
+    <row r="1441" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1441"/>
+    </row>
+    <row r="1442" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1442"/>
+    </row>
+    <row r="1443" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1443"/>
+    </row>
+    <row r="1444" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1444"/>
+    </row>
+    <row r="1445" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1445"/>
+    </row>
+    <row r="1446" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1446"/>
+    </row>
+    <row r="1447" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1447"/>
+    </row>
+    <row r="1448" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1448"/>
+    </row>
+    <row r="1449" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1449"/>
+    </row>
+    <row r="1450" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1450"/>
+    </row>
+    <row r="1451" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1451"/>
+    </row>
+    <row r="1452" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1452"/>
+    </row>
+    <row r="1453" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1453"/>
+    </row>
+    <row r="1454" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1454"/>
+    </row>
+    <row r="1455" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1455"/>
+    </row>
+    <row r="1456" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1456"/>
+    </row>
+    <row r="1457" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1457"/>
+    </row>
+    <row r="1458" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1458"/>
+    </row>
+    <row r="1459" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1459"/>
+    </row>
+    <row r="1460" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1460"/>
+    </row>
+    <row r="1461" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1461"/>
+    </row>
+    <row r="1462" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1462"/>
+    </row>
+    <row r="1463" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1463"/>
+    </row>
+    <row r="1464" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1464"/>
+    </row>
+    <row r="1465" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1465"/>
+    </row>
+    <row r="1466" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1466"/>
+    </row>
+    <row r="1467" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1467"/>
+    </row>
+    <row r="1468" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1468"/>
+    </row>
+    <row r="1469" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1469"/>
+    </row>
+    <row r="1470" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1470"/>
+    </row>
+    <row r="1471" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1471"/>
+    </row>
+    <row r="1472" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1472"/>
+    </row>
+    <row r="1473" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1473"/>
+    </row>
+    <row r="1474" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1474"/>
+    </row>
+    <row r="1475" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1475"/>
+    </row>
+    <row r="1476" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1476"/>
+    </row>
+    <row r="1477" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1477"/>
+    </row>
+    <row r="1478" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1478"/>
+    </row>
+    <row r="1479" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1479"/>
+    </row>
+    <row r="1480" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1480"/>
+    </row>
+    <row r="1481" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1481"/>
+    </row>
+    <row r="1482" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1482"/>
+    </row>
+    <row r="1483" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1483"/>
+    </row>
+    <row r="1484" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1484"/>
+    </row>
+    <row r="1485" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1485"/>
+    </row>
+    <row r="1486" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1486"/>
+    </row>
+    <row r="1487" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1487"/>
+    </row>
+    <row r="1488" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1488"/>
+    </row>
+    <row r="1489" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1489"/>
+    </row>
+    <row r="1490" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1490"/>
+    </row>
+    <row r="1491" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1491"/>
+    </row>
+    <row r="1492" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1492"/>
+    </row>
+    <row r="1493" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1493"/>
+    </row>
+    <row r="1494" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1494"/>
+    </row>
+    <row r="1495" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1495"/>
+    </row>
+    <row r="1496" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1496"/>
+    </row>
+    <row r="1497" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1497"/>
+    </row>
+    <row r="1498" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1498"/>
+    </row>
+    <row r="1499" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1499"/>
+    </row>
+    <row r="1500" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1500"/>
+    </row>
+    <row r="1501" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1501"/>
+    </row>
+    <row r="1502" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1502"/>
+    </row>
+    <row r="1503" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1503"/>
+    </row>
+    <row r="1504" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1504"/>
+    </row>
+    <row r="1505" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1505"/>
+    </row>
+    <row r="1506" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1506"/>
+    </row>
+    <row r="1507" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1507"/>
+    </row>
+    <row r="1508" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1508"/>
+    </row>
+    <row r="1509" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1509"/>
+    </row>
+    <row r="1510" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1510"/>
+    </row>
+    <row r="1511" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1511"/>
+    </row>
+    <row r="1512" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1512"/>
+    </row>
+    <row r="1513" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1513"/>
+    </row>
+    <row r="1514" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1514"/>
+    </row>
+    <row r="1515" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1515"/>
+    </row>
+    <row r="1516" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1516"/>
+    </row>
+    <row r="1517" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1517"/>
+    </row>
+    <row r="1518" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1518"/>
+    </row>
+    <row r="1519" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1519"/>
+    </row>
+    <row r="1520" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1520"/>
+    </row>
+    <row r="1521" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1521"/>
+    </row>
+    <row r="1522" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1522"/>
+    </row>
+    <row r="1523" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1523"/>
+    </row>
+    <row r="1524" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1524"/>
+    </row>
+    <row r="1525" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1525"/>
+    </row>
+    <row r="1526" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1526"/>
+    </row>
+    <row r="1527" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1527"/>
+    </row>
+    <row r="1528" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1528"/>
+    </row>
+    <row r="1529" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1529"/>
+    </row>
+    <row r="1530" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1530"/>
+    </row>
+    <row r="1531" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1531"/>
+    </row>
+    <row r="1532" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1532"/>
+    </row>
+    <row r="1533" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1533"/>
+    </row>
+    <row r="1534" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1534"/>
+    </row>
+    <row r="1535" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1535"/>
+    </row>
+    <row r="1536" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1536"/>
+    </row>
+    <row r="1537" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1537"/>
+    </row>
+    <row r="1538" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1538"/>
+    </row>
+    <row r="1539" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1539"/>
+    </row>
+    <row r="1540" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1540"/>
+    </row>
+    <row r="1541" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1541"/>
+    </row>
+    <row r="1542" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1542"/>
+    </row>
+    <row r="1543" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1543"/>
+    </row>
+    <row r="1544" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1544"/>
+    </row>
+    <row r="1545" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1545"/>
+    </row>
+    <row r="1546" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1546"/>
+    </row>
+    <row r="1547" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1547"/>
+    </row>
+    <row r="1548" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1548"/>
+    </row>
+    <row r="1549" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1549"/>
+    </row>
+    <row r="1550" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1550"/>
+    </row>
+    <row r="1551" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1551"/>
+    </row>
+    <row r="1552" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1552"/>
+    </row>
+    <row r="1553" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1553"/>
+    </row>
+    <row r="1554" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1554"/>
+    </row>
+    <row r="1555" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1555"/>
+    </row>
+    <row r="1556" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1556"/>
+    </row>
+    <row r="1557" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1557"/>
+    </row>
+    <row r="1558" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1558"/>
+    </row>
+    <row r="1559" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1559"/>
+    </row>
+    <row r="1560" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1560"/>
+    </row>
+    <row r="1561" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1561"/>
+    </row>
+    <row r="1562" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1562"/>
+    </row>
+    <row r="1563" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1563"/>
+    </row>
+    <row r="1564" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1564"/>
+    </row>
+    <row r="1565" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1565"/>
+    </row>
+    <row r="1566" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1566"/>
+    </row>
+    <row r="1567" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1567"/>
+    </row>
+    <row r="1568" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1568"/>
+    </row>
+    <row r="1569" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1569"/>
+    </row>
+    <row r="1570" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1570"/>
+    </row>
+    <row r="1571" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1571"/>
+    </row>
+    <row r="1572" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1572"/>
+    </row>
+    <row r="1573" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1573"/>
+    </row>
+    <row r="1574" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1574"/>
+    </row>
+    <row r="1575" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1575"/>
+    </row>
+    <row r="1576" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1576"/>
+    </row>
+    <row r="1577" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1577"/>
+    </row>
+    <row r="1578" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1578"/>
+    </row>
+    <row r="1579" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1579"/>
+    </row>
+    <row r="1580" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1580"/>
+    </row>
+    <row r="1581" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1581"/>
+    </row>
+    <row r="1582" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1582"/>
+    </row>
+    <row r="1583" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1583"/>
+    </row>
+    <row r="1584" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1584"/>
+    </row>
+    <row r="1585" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1585"/>
+    </row>
+    <row r="1586" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1586"/>
+    </row>
+    <row r="1587" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1587"/>
+    </row>
+    <row r="1588" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1588"/>
+    </row>
+    <row r="1589" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1589"/>
+    </row>
+    <row r="1590" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1590"/>
+    </row>
+    <row r="1591" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1591"/>
+    </row>
+    <row r="1592" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1592"/>
+    </row>
+    <row r="1593" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1593"/>
+    </row>
+    <row r="1594" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1594"/>
+    </row>
+    <row r="1595" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1595"/>
+    </row>
+    <row r="1596" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1596"/>
+    </row>
+    <row r="1597" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1597"/>
+    </row>
+    <row r="1598" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1598"/>
+    </row>
+    <row r="1599" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1599"/>
+    </row>
+    <row r="1600" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1600"/>
+    </row>
+    <row r="1601" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1601"/>
+    </row>
+    <row r="1602" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1602"/>
+    </row>
+    <row r="1603" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1603"/>
+    </row>
+    <row r="1604" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1604"/>
+    </row>
+    <row r="1605" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1605"/>
+    </row>
+    <row r="1606" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1606"/>
+    </row>
+    <row r="1607" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1607"/>
+    </row>
+    <row r="1608" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1608"/>
+    </row>
+    <row r="1609" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1609"/>
+    </row>
+    <row r="1610" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1610"/>
+    </row>
+    <row r="1611" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1611"/>
+    </row>
+    <row r="1612" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1612"/>
+    </row>
+    <row r="1613" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1613"/>
+    </row>
+    <row r="1614" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1614"/>
+    </row>
+    <row r="1615" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1615"/>
+    </row>
+    <row r="1616" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1616"/>
+    </row>
+    <row r="1617" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1617"/>
+    </row>
+    <row r="1618" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1618"/>
+    </row>
+    <row r="1619" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1619"/>
+    </row>
+    <row r="1620" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1620"/>
+    </row>
+    <row r="1621" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1621"/>
+    </row>
+    <row r="1622" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1622"/>
+    </row>
+    <row r="1623" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1623"/>
+    </row>
+    <row r="1624" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1624"/>
+    </row>
+    <row r="1625" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1625"/>
+    </row>
+    <row r="1626" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1626"/>
+    </row>
+    <row r="1627" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1627"/>
+    </row>
+    <row r="1628" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1628"/>
+    </row>
+    <row r="1629" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1629"/>
+    </row>
+    <row r="1630" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1630"/>
+    </row>
+    <row r="1631" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1631"/>
+    </row>
+    <row r="1632" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1632"/>
+    </row>
+    <row r="1633" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1633"/>
+    </row>
+    <row r="1634" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1634"/>
+    </row>
+    <row r="1635" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1635"/>
+    </row>
+    <row r="1636" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1636"/>
+    </row>
+    <row r="1637" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1637"/>
+    </row>
+    <row r="1638" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1638"/>
+    </row>
+    <row r="1639" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1639"/>
+    </row>
+    <row r="1640" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1640"/>
+    </row>
+    <row r="1641" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1641"/>
+    </row>
+    <row r="1642" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1642"/>
+    </row>
+    <row r="1643" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1643"/>
+    </row>
+    <row r="1644" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1644"/>
+    </row>
+    <row r="1645" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1645"/>
+    </row>
+    <row r="1646" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1646"/>
+    </row>
+    <row r="1647" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1647"/>
+    </row>
+    <row r="1648" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1648"/>
+    </row>
+    <row r="1649" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1649"/>
+    </row>
+    <row r="1650" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1650"/>
+    </row>
+    <row r="1651" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1651"/>
+    </row>
+    <row r="1652" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1652"/>
+    </row>
+    <row r="1653" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1653"/>
+    </row>
+    <row r="1654" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1654"/>
+    </row>
+    <row r="1655" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1655"/>
+    </row>
+    <row r="1656" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1656"/>
+    </row>
+    <row r="1657" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1657"/>
+    </row>
+    <row r="1658" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1658"/>
+    </row>
+    <row r="1659" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1659"/>
+    </row>
+    <row r="1660" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1660"/>
+    </row>
+    <row r="1661" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1661"/>
+    </row>
+    <row r="1662" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1662"/>
+    </row>
+    <row r="1663" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1663"/>
+    </row>
+    <row r="1664" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1664"/>
+    </row>
+    <row r="1665" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1665"/>
+    </row>
+    <row r="1666" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1666"/>
+    </row>
+    <row r="1667" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1667"/>
+    </row>
+    <row r="1668" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1668"/>
+    </row>
+    <row r="1669" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1669"/>
+    </row>
+    <row r="1670" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1670"/>
+    </row>
+    <row r="1671" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1671"/>
+    </row>
+    <row r="1672" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1672"/>
+    </row>
+    <row r="1673" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1673"/>
+    </row>
+    <row r="1674" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1674"/>
+    </row>
+    <row r="1675" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1675"/>
+    </row>
+    <row r="1676" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1676"/>
+    </row>
+    <row r="1677" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1677"/>
+    </row>
+    <row r="1678" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1678"/>
+    </row>
+    <row r="1679" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1679"/>
+    </row>
+    <row r="1680" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1680"/>
+    </row>
+    <row r="1681" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1681"/>
+    </row>
+    <row r="1682" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1682"/>
+    </row>
+    <row r="1683" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1683"/>
+    </row>
+    <row r="1684" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1684"/>
+    </row>
+    <row r="1685" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1685"/>
+    </row>
+    <row r="1686" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1686"/>
+    </row>
+    <row r="1687" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1687"/>
+    </row>
+    <row r="1688" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1688"/>
+    </row>
+    <row r="1689" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1689"/>
+    </row>
+    <row r="1690" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1690"/>
+    </row>
+    <row r="1691" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1691"/>
+    </row>
+    <row r="1692" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1692"/>
+    </row>
+    <row r="1693" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1693"/>
+    </row>
+    <row r="1694" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1694"/>
+    </row>
+    <row r="1695" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1695"/>
+    </row>
+    <row r="1696" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1696"/>
+    </row>
+    <row r="1697" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1697"/>
+    </row>
+    <row r="1698" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1698"/>
+    </row>
+    <row r="1699" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1699"/>
+    </row>
+    <row r="1700" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1700"/>
+    </row>
+    <row r="1701" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1701"/>
+    </row>
+    <row r="1702" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1702"/>
+    </row>
+    <row r="1703" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1703"/>
+    </row>
+    <row r="1704" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1704"/>
+    </row>
+    <row r="1705" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1705"/>
+    </row>
+    <row r="1706" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1706"/>
+    </row>
+    <row r="1707" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1707"/>
+    </row>
+    <row r="1708" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1708"/>
+    </row>
+    <row r="1709" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1709"/>
+    </row>
+    <row r="1710" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1710"/>
+    </row>
+    <row r="1711" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1711"/>
+    </row>
+    <row r="1712" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1712"/>
+    </row>
+    <row r="1713" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1713"/>
+    </row>
+    <row r="1714" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1714"/>
+    </row>
+    <row r="1715" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1715"/>
+    </row>
+    <row r="1716" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1716"/>
+    </row>
+    <row r="1717" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1717"/>
+    </row>
+    <row r="1718" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1718"/>
+    </row>
+    <row r="1719" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1719"/>
+    </row>
+    <row r="1720" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1720"/>
+    </row>
+    <row r="1721" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1721"/>
+    </row>
+    <row r="1722" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1722"/>
+    </row>
+    <row r="1723" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1723"/>
+    </row>
+    <row r="1724" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1724"/>
+    </row>
+    <row r="1725" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1725"/>
+    </row>
+    <row r="1726" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1726"/>
+    </row>
+    <row r="1727" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1727"/>
+    </row>
+    <row r="1728" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1728"/>
+    </row>
+    <row r="1729" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1729"/>
+    </row>
+    <row r="1730" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1730"/>
+    </row>
+    <row r="1731" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1731"/>
+    </row>
+    <row r="1732" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1732"/>
+    </row>
+    <row r="1733" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1733"/>
+    </row>
+    <row r="1734" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1734"/>
+    </row>
+    <row r="1735" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1735"/>
+    </row>
+    <row r="1736" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1736"/>
+    </row>
+    <row r="1737" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1737"/>
+    </row>
+    <row r="1738" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1738"/>
+    </row>
+    <row r="1739" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1739"/>
+    </row>
+    <row r="1740" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1740"/>
+    </row>
+    <row r="1741" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1741"/>
+    </row>
+    <row r="1742" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1742"/>
+    </row>
+    <row r="1743" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1743"/>
+    </row>
+    <row r="1744" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1744"/>
+    </row>
+    <row r="1745" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1745"/>
+    </row>
+    <row r="1746" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1746"/>
+    </row>
+    <row r="1747" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1747"/>
+    </row>
+    <row r="1748" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1748"/>
+    </row>
+    <row r="1749" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1749"/>
+    </row>
+    <row r="1750" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1750"/>
+    </row>
+    <row r="1751" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1751"/>
+    </row>
+    <row r="1752" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1752"/>
+    </row>
+    <row r="1753" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1753"/>
+    </row>
+    <row r="1754" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1754"/>
+    </row>
+    <row r="1755" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1755"/>
+    </row>
+    <row r="1756" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1756"/>
+    </row>
+    <row r="1757" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1757"/>
+    </row>
+    <row r="1758" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1758"/>
+    </row>
+    <row r="1759" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1759"/>
+    </row>
+    <row r="1760" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1760"/>
+    </row>
+    <row r="1761" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1761"/>
+    </row>
+    <row r="1762" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1762"/>
+    </row>
+    <row r="1763" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1763"/>
+    </row>
+    <row r="1764" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1764"/>
+    </row>
+    <row r="1765" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1765"/>
+    </row>
+    <row r="1766" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1766"/>
+    </row>
+    <row r="1767" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1767"/>
+    </row>
+    <row r="1768" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1768"/>
+    </row>
+    <row r="1769" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1769"/>
+    </row>
+    <row r="1770" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1770"/>
+    </row>
+    <row r="1771" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1771"/>
+    </row>
+    <row r="1772" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1772"/>
+    </row>
+    <row r="1773" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1773"/>
+    </row>
+    <row r="1774" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1774"/>
+    </row>
+    <row r="1775" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1775"/>
+    </row>
+    <row r="1776" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1776"/>
+    </row>
+    <row r="1777" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1777"/>
+    </row>
+    <row r="1778" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1778"/>
+    </row>
+    <row r="1779" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1779"/>
+    </row>
+    <row r="1780" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1780"/>
+    </row>
+    <row r="1781" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1781"/>
+    </row>
+    <row r="1782" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1782"/>
+    </row>
+    <row r="1783" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1783"/>
+    </row>
+    <row r="1784" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1784"/>
+    </row>
+    <row r="1785" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1785"/>
+    </row>
+    <row r="1786" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1786"/>
+    </row>
+    <row r="1787" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1787"/>
+    </row>
+    <row r="1788" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1788"/>
+    </row>
+    <row r="1789" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1789"/>
+    </row>
+    <row r="1790" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1790"/>
+    </row>
+    <row r="1791" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1791"/>
+    </row>
+    <row r="1792" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1792"/>
+    </row>
+    <row r="1793" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1793"/>
+    </row>
+    <row r="1794" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1794"/>
+    </row>
+    <row r="1795" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1795"/>
+    </row>
+    <row r="1796" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1796"/>
+    </row>
+    <row r="1797" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1797"/>
+    </row>
+    <row r="1798" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1798"/>
+    </row>
+    <row r="1799" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1799"/>
+    </row>
+    <row r="1800" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1800"/>
+    </row>
+    <row r="1801" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1801"/>
+    </row>
+    <row r="1802" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1802"/>
+    </row>
+    <row r="1803" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1803"/>
+    </row>
+    <row r="1804" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1804"/>
+    </row>
+    <row r="1805" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1805"/>
+    </row>
+    <row r="1806" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1806"/>
+    </row>
+    <row r="1807" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1807"/>
+    </row>
+    <row r="1808" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1808"/>
+    </row>
+    <row r="1809" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1809"/>
+    </row>
+    <row r="1810" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1810"/>
+    </row>
+    <row r="1811" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1811"/>
+    </row>
+    <row r="1812" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1812"/>
+    </row>
+    <row r="1813" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1813"/>
+    </row>
+    <row r="1814" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1814"/>
+    </row>
+    <row r="1815" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1815"/>
+    </row>
+    <row r="1816" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1816"/>
+    </row>
+    <row r="1817" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1817"/>
+    </row>
+    <row r="1818" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1818"/>
+    </row>
+    <row r="1819" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1819"/>
+    </row>
+    <row r="1820" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1820"/>
+    </row>
+    <row r="1821" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1821"/>
+    </row>
+    <row r="1822" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1822"/>
+    </row>
+    <row r="1823" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1823"/>
+    </row>
+    <row r="1824" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1824"/>
+    </row>
+    <row r="1825" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1825"/>
+    </row>
+    <row r="1826" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1826"/>
+    </row>
+    <row r="1827" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1827"/>
+    </row>
+    <row r="1828" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1828"/>
+    </row>
+    <row r="1829" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1829"/>
+    </row>
+    <row r="1830" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1830"/>
+    </row>
+    <row r="1831" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1831"/>
+    </row>
+    <row r="1832" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1832"/>
+    </row>
+    <row r="1833" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1833"/>
+    </row>
+    <row r="1834" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1834"/>
+    </row>
+    <row r="1835" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1835"/>
+    </row>
+    <row r="1836" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1836"/>
+    </row>
+    <row r="1837" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1837"/>
+    </row>
+    <row r="1838" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1838"/>
+    </row>
+    <row r="1839" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1839"/>
+    </row>
+    <row r="1840" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1840"/>
+    </row>
+    <row r="1841" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1841"/>
+    </row>
+    <row r="1842" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1842"/>
+    </row>
+    <row r="1843" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1843"/>
+    </row>
+    <row r="1844" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1844"/>
+    </row>
+    <row r="1845" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1845"/>
+    </row>
+    <row r="1846" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1846"/>
+    </row>
+    <row r="1847" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1847"/>
+    </row>
+    <row r="1848" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1848"/>
+    </row>
+    <row r="1849" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1849"/>
+    </row>
+    <row r="1850" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1850"/>
+    </row>
+    <row r="1851" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1851"/>
+    </row>
+    <row r="1852" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1852"/>
+    </row>
+    <row r="1853" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1853"/>
+    </row>
+    <row r="1854" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1854"/>
+    </row>
+    <row r="1855" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1855"/>
+    </row>
+    <row r="1856" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1856"/>
+    </row>
+    <row r="1857" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1857"/>
+    </row>
+    <row r="1858" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1858"/>
+    </row>
+    <row r="1859" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1859"/>
+    </row>
+    <row r="1860" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1860"/>
+    </row>
+    <row r="1861" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1861"/>
+    </row>
+    <row r="1862" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1862"/>
+    </row>
+    <row r="1863" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1863"/>
+    </row>
+    <row r="1864" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1864"/>
+    </row>
+    <row r="1865" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1865"/>
+    </row>
+    <row r="1866" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1866"/>
+    </row>
+    <row r="1867" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1867"/>
+    </row>
+    <row r="1868" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1868"/>
+    </row>
+    <row r="1869" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1869"/>
+    </row>
+    <row r="1870" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1870"/>
+    </row>
+    <row r="1871" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1871"/>
+    </row>
+    <row r="1872" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1872"/>
+    </row>
+    <row r="1873" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1873"/>
+    </row>
+    <row r="1874" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1874"/>
+    </row>
+    <row r="1875" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1875"/>
+    </row>
+    <row r="1876" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1876"/>
+    </row>
+    <row r="1877" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1877"/>
+    </row>
+    <row r="1878" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1878"/>
+    </row>
+    <row r="1879" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1879"/>
+    </row>
+    <row r="1880" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1880"/>
+    </row>
+    <row r="1881" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1881"/>
+    </row>
+    <row r="1882" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1882"/>
+    </row>
+    <row r="1883" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1883"/>
+    </row>
+    <row r="1884" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1884"/>
+    </row>
+    <row r="1885" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1885"/>
+    </row>
+    <row r="1886" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1886"/>
+    </row>
+    <row r="1887" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1887"/>
+    </row>
+    <row r="1888" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1888"/>
+    </row>
+    <row r="1889" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1889"/>
+    </row>
+    <row r="1890" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1890"/>
+    </row>
+    <row r="1891" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1891"/>
+    </row>
+    <row r="1892" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1892"/>
+    </row>
+    <row r="1893" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1893"/>
+    </row>
+    <row r="1894" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1894"/>
+    </row>
+    <row r="1895" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1895"/>
+    </row>
+    <row r="1896" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1896"/>
+    </row>
+    <row r="1897" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1897"/>
+    </row>
+    <row r="1898" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1898"/>
+    </row>
+    <row r="1899" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1899"/>
+    </row>
+    <row r="1900" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1900"/>
+    </row>
+    <row r="1901" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1901"/>
+    </row>
+    <row r="1902" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1902"/>
+    </row>
+    <row r="1903" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1903"/>
+    </row>
+    <row r="1904" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1904"/>
+    </row>
+    <row r="1905" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1905"/>
+    </row>
+    <row r="1906" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1906"/>
+    </row>
+    <row r="1907" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1907"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0"/>
   <mergeCells count="2">
     <mergeCell ref="A1:A12"/>
     <mergeCell ref="A13:A29"/>
   </mergeCells>
-  <dataValidations count="4">
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Note " prompt="If the desired material does not figure on the list, please add it as well as its following parameters manuelly to the list in the worksheet &quot;rail and wheel materials&quot;" sqref="D6">
       <formula1>rng_wheel_material_names</formula1>
     </dataValidation>
@@ -2405,6 +8108,21 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:H1">
       <formula1>rng_wheel_geometry_names</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:XFD29">
+      <formula1>0</formula1>
+      <formula2>1E+99</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:XFD12">
+      <formula1>"1,2,4"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:XFD11">
+      <formula1>0</formula1>
+      <formula2>1000000000000000000</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:XFD5">
+      <formula1>0</formula1>
+      <formula2>1000000000000000</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2435,249 +8153,259 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="9" width="14.5703125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="9" width="25.08984375" style="31" customWidth="1"/>
+    <col min="10" max="16384" width="11.453125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="30">
         <v>0</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="30">
         <v>360</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="30">
         <v>125</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="30">
         <v>210000</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="19">
+      <c r="I2" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="30">
         <v>0</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="30">
         <v>410</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="30">
         <v>145</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="30">
         <v>210000</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="30">
         <v>0</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="30">
         <v>520</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="30">
         <v>175</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="30">
         <v>210000</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="30">
         <v>0</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="30">
         <v>760</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="30">
         <v>225</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="30">
         <v>210000</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="30">
         <v>0</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="30">
         <v>520</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="30">
         <v>155</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="30">
         <v>210000</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="30">
         <v>0</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="30">
         <v>640</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="30">
         <v>190</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="30">
         <v>210000</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="30">
         <v>0</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="30">
         <v>870</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="30">
         <v>260</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="30">
         <v>210000</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="30">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+      <formula1>"0,1"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:I1048576">
+      <formula1>0</formula1>
+      <formula2>1E+99</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
@@ -2688,279 +8416,295 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="9" width="19.7109375" style="2" customWidth="1"/>
+    <col min="1" max="9" width="19.7265625" style="31" customWidth="1"/>
+    <col min="10" max="16384" width="10.90625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="34">
         <v>1.6552</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="29">
         <v>0</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="29">
         <v>0</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="29">
         <v>520</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="29">
         <v>155</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="29">
         <v>210000</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="29" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="36">
         <v>0.70599999999999996</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="29">
         <v>0</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="29">
         <v>0</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="35">
         <v>600</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="35">
         <v>210</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="29">
         <v>177000</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="35" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="36">
         <v>0.70699999999999996</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="29">
         <v>0</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="29">
         <v>0</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="35">
         <v>700</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="35">
         <v>245</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="29">
         <v>180000</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="35" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="36">
         <v>1.7218</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="29">
         <v>0</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="29">
         <v>0</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="35">
         <v>650</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="35">
         <v>190</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="29">
         <v>210000</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="35" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="36">
         <v>1.7224999999999999</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="29">
         <v>0</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="29">
         <v>0</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="35">
         <v>700</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="35">
         <v>210</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="29">
         <v>210000</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="35" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="36">
         <v>1.7224999999999999</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="29">
         <v>0</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="29">
         <v>0</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="35">
         <v>750</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="35">
         <v>225</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="29">
         <v>210000</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="35" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="36">
         <v>1.6956</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="29">
         <v>0</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="29">
         <v>0</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="35">
         <v>1000</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="35">
         <v>295</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="29">
         <v>210000</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="35" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="36">
         <v>1.7224999999999999</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="29">
         <v>1</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="29">
         <v>10</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="35">
         <v>420</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="35">
         <v>252</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="29">
         <v>210000</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="35" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C10" s="31">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+      <formula1>"0,1"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:I1048576">
+      <formula1>0</formula1>
+      <formula2>1E+99</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -2973,66 +8717,73 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="B2" sqref="B2:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="17.5703125" customWidth="1"/>
+    <col min="1" max="5" width="17.54296875" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="37">
         <v>70</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="37">
         <v>100</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="37">
         <v>20</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="37">
         <v>450</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="37">
         <v>100</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="37">
         <v>400</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="37">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="37">
         <v>600</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:E1048576">
+      <formula1>0</formula1>
+      <formula2>1E+99</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -3045,57 +8796,65 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+      <selection activeCell="B2" sqref="B2:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="22.5703125" style="2" customWidth="1"/>
+    <col min="1" max="4" width="22.54296875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.90625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="6">
         <v>63</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="6">
         <v>100</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="6">
         <v>88</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="6">
         <v>400</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="6">
         <v>10</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:D1048576">
+      <formula1>0</formula1>
+      <formula2>1E+99</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/tests/input_file/inputparameters.xlsx
+++ b/tests/input_file/inputparameters.xlsx
@@ -2076,15 +2076,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>641350</xdr:colOff>
+      <xdr:colOff>628650</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
+      <xdr:colOff>184150</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>104008</xdr:rowOff>
+      <xdr:rowOff>129408</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2101,7 +2101,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13887450" y="6178550"/>
+          <a:off x="13874750" y="6203950"/>
           <a:ext cx="2057400" cy="2967858"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2563,13 +2563,13 @@
   <dimension ref="A1:AK1893"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="59.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="3" max="3" width="26" hidden="1" customWidth="1"/>
     <col min="4" max="6" width="19.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.90625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.1796875" customWidth="1"/>
@@ -10499,7 +10499,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11017,7 +11017,7 @@
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/tests/input_file/inputparameters.xlsx
+++ b/tests/input_file/inputparameters.xlsx
@@ -149,9 +149,9 @@
           <t xml:space="preserve">
 Only relevant for static proof.
 Expected to be factorless (dynamic and risk factors are added during computation)
-Is computed automaticalle if set to 0 under following assumptions:
+Is computed automatically if set to 0 under following assumptions:
 -Lift center of gravity at highest point (Crane Height)
--Maximum acclererations in x and y</t>
+-Maximum accelerations in x and y</t>
         </r>
       </text>
     </comment>
@@ -1439,15 +1439,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1462,12 +1453,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -1486,15 +1471,30 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1502,46 +1502,6 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="39">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2058,6 +2018,46 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2075,16 +2075,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1130300</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>129408</xdr:rowOff>
+      <xdr:rowOff>180208</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2101,7 +2101,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13874750" y="6203950"/>
+          <a:off x="13811250" y="6254750"/>
           <a:ext cx="2057400" cy="2967858"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2201,63 +2201,63 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="railmaterials" displayName="railmaterials" ref="A2:I9" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37" headerRowCellStyle="Gut">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="railmaterials" displayName="railmaterials" ref="A2:I9" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33" headerRowCellStyle="Gut">
   <autoFilter ref="A2:I9"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Name" dataDxfId="36"/>
-    <tableColumn id="2" name="Norm" dataDxfId="35"/>
-    <tableColumn id="3" name="Material Number" dataDxfId="34"/>
-    <tableColumn id="4" name="Hardened Surface (yes = 1, no = 0) " dataDxfId="33"/>
-    <tableColumn id="5" name="Yield Point at the Depth of Maximum Shear _x000a_ f_y [N/mm²]" dataDxfId="32"/>
-    <tableColumn id="6" name="Unit-Conform Hardness_x000a_HB" dataDxfId="31"/>
-    <tableColumn id="7" name="E-Moduleus [N/mm²]" dataDxfId="30"/>
-    <tableColumn id="8" name="Radial-Strain-Coefficient-v" dataDxfId="29"/>
-    <tableColumn id="9" name="Depth-Of-Achieved-Hardeness-Surface z [mm]" dataDxfId="28"/>
+    <tableColumn id="1" name="Name" dataDxfId="32"/>
+    <tableColumn id="2" name="Norm" dataDxfId="31"/>
+    <tableColumn id="3" name="Material Number" dataDxfId="30"/>
+    <tableColumn id="4" name="Hardened Surface (yes = 1, no = 0) " dataDxfId="29"/>
+    <tableColumn id="5" name="Yield Point at the Depth of Maximum Shear _x000a_ f_y [N/mm²]" dataDxfId="28"/>
+    <tableColumn id="6" name="Unit-Conform Hardness_x000a_HB" dataDxfId="27"/>
+    <tableColumn id="7" name="E-Moduleus [N/mm²]" dataDxfId="26"/>
+    <tableColumn id="8" name="Radial-Strain-Coefficient-v" dataDxfId="25"/>
+    <tableColumn id="9" name="Depth-Of-Achieved-Hardeness-Surface z [mm]" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="wheelmaterials4" displayName="wheelmaterials4" ref="A2:I10" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowCellStyle="Gut">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="wheelmaterials4" displayName="wheelmaterials4" ref="A2:I10" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowCellStyle="Gut">
   <autoFilter ref="A2:I10"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Name" dataDxfId="25"/>
-    <tableColumn id="2" name="Norm" dataDxfId="24"/>
-    <tableColumn id="3" name="Material Number" dataDxfId="23"/>
-    <tableColumn id="4" name="Hardened Surface (yes = 1, no = 0) " dataDxfId="22"/>
-    <tableColumn id="9" name="Yield Point at the Depth of Maximum Shear _x000a_ f_y [N/mm²]" dataDxfId="21"/>
-    <tableColumn id="5" name="Unit-Conform Hardness_x000a_HB" dataDxfId="20"/>
-    <tableColumn id="6" name="E-Moduleus [N/mm²]" dataDxfId="19"/>
-    <tableColumn id="7" name="Radial-Strain-Coefficient-v" dataDxfId="18"/>
-    <tableColumn id="8" name="Depth-Of-Achieved-Hardeness-Surface _x000a_z [mm]" dataDxfId="17"/>
+    <tableColumn id="1" name="Name" dataDxfId="21"/>
+    <tableColumn id="2" name="Norm" dataDxfId="20"/>
+    <tableColumn id="3" name="Material Number" dataDxfId="19"/>
+    <tableColumn id="4" name="Hardened Surface (yes = 1, no = 0) " dataDxfId="18"/>
+    <tableColumn id="9" name="Yield Point at the Depth of Maximum Shear _x000a_ f_y [N/mm²]" dataDxfId="17"/>
+    <tableColumn id="5" name="Unit-Conform Hardness_x000a_HB" dataDxfId="16"/>
+    <tableColumn id="6" name="E-Moduleus [N/mm²]" dataDxfId="15"/>
+    <tableColumn id="7" name="Radial-Strain-Coefficient-v" dataDxfId="14"/>
+    <tableColumn id="8" name="Depth-Of-Achieved-Hardeness-Surface _x000a_z [mm]" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="wheelgeometries" displayName="wheelgeometries" ref="A2:E4" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="wheelgeometries" displayName="wheelgeometries" ref="A2:E4" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A2:E4"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Name" dataDxfId="14"/>
-    <tableColumn id="2" name="Load-bearing-Width b_w [mm]" dataDxfId="13"/>
-    <tableColumn id="3" name="Second-Wheel-Radius r_k [mm]" dataDxfId="12"/>
-    <tableColumn id="4" name="Edge-Radius r_3 [mm]" dataDxfId="11"/>
-    <tableColumn id="5" name="Diameter D_w" dataDxfId="10"/>
+    <tableColumn id="1" name="Name" dataDxfId="10"/>
+    <tableColumn id="2" name="Load-bearing-Width b_w [mm]" dataDxfId="9"/>
+    <tableColumn id="3" name="Second-Wheel-Radius r_k [mm]" dataDxfId="8"/>
+    <tableColumn id="4" name="Edge-Radius r_3 [mm]" dataDxfId="7"/>
+    <tableColumn id="5" name="Diameter D_w" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="railgeometries" displayName="railgeometries" ref="A2:D4" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="railgeometries" displayName="railgeometries" ref="A2:D4" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A2:D4"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Name" dataDxfId="7"/>
-    <tableColumn id="2" name="Load-bearing-Width b_r [mm]" dataDxfId="6"/>
-    <tableColumn id="3" name="Rail-Surface-Radius r_k [mm]" dataDxfId="5"/>
-    <tableColumn id="4" name="Edge-Radius r_3 [mm]" dataDxfId="4"/>
+    <tableColumn id="1" name="Name" dataDxfId="3"/>
+    <tableColumn id="2" name="Load-bearing-Width b_r [mm]" dataDxfId="2"/>
+    <tableColumn id="3" name="Rail-Surface-Radius r_k [mm]" dataDxfId="1"/>
+    <tableColumn id="4" name="Edge-Radius r_3 [mm]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2563,7 +2563,7 @@
   <dimension ref="A1:AK1893"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2577,66 +2577,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
     </row>
     <row r="2" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
+      <c r="A2" s="44"/>
       <c r="B2" s="8" t="s">
         <v>84</v>
       </c>
@@ -2693,7 +2693,7 @@
       <c r="AK2" s="8"/>
     </row>
     <row r="3" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="30"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="7" t="s">
         <v>82</v>
       </c>
@@ -2750,7 +2750,7 @@
       <c r="AK3" s="7"/>
     </row>
     <row r="4" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="30"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="8" t="s">
         <v>81</v>
       </c>
@@ -2807,7 +2807,7 @@
       <c r="AK4" s="8"/>
     </row>
     <row r="5" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="30"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="7" t="s">
         <v>95</v>
       </c>
@@ -2864,7 +2864,7 @@
       <c r="AK5" s="7"/>
     </row>
     <row r="6" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="30"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="8" t="s">
         <v>131</v>
       </c>
@@ -2921,7 +2921,7 @@
       <c r="AK6" s="8"/>
     </row>
     <row r="7" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="30"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="7" t="s">
         <v>113</v>
       </c>
@@ -2978,7 +2978,7 @@
       <c r="AK7" s="7"/>
     </row>
     <row r="8" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="30"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="8" t="s">
         <v>96</v>
       </c>
@@ -3035,7 +3035,7 @@
       <c r="AK8" s="8"/>
     </row>
     <row r="9" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="30"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="7" t="s">
         <v>115</v>
       </c>
@@ -3092,7 +3092,7 @@
       <c r="AK9" s="7"/>
     </row>
     <row r="10" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="30"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="8" t="s">
         <v>116</v>
       </c>
@@ -3149,7 +3149,7 @@
       <c r="AK10" s="8"/>
     </row>
     <row r="11" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="47" t="s">
         <v>133</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -3208,7 +3208,7 @@
       <c r="AK11" s="7"/>
     </row>
     <row r="12" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="32"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="8" t="s">
         <v>118</v>
       </c>
@@ -3265,7 +3265,7 @@
       <c r="AK12" s="8"/>
     </row>
     <row r="13" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="32"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="7" t="s">
         <v>78</v>
       </c>
@@ -3322,7 +3322,7 @@
       <c r="AK13" s="7"/>
     </row>
     <row r="14" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="32"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="8" t="s">
         <v>117</v>
       </c>
@@ -3379,7 +3379,7 @@
       <c r="AK14" s="8"/>
     </row>
     <row r="15" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="32"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="7" t="s">
         <v>79</v>
       </c>
@@ -3436,7 +3436,7 @@
       <c r="AK15" s="7"/>
     </row>
     <row r="16" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="32"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="8" t="s">
         <v>80</v>
       </c>
@@ -3493,7 +3493,7 @@
       <c r="AK16" s="8"/>
     </row>
     <row r="17" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="32"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="7" t="s">
         <v>119</v>
       </c>
@@ -3550,7 +3550,7 @@
       <c r="AK17" s="7"/>
     </row>
     <row r="18" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="32"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="8" t="s">
         <v>86</v>
       </c>
@@ -3607,7 +3607,7 @@
       <c r="AK18" s="8"/>
     </row>
     <row r="19" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="32"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="7" t="s">
         <v>87</v>
       </c>
@@ -3664,7 +3664,7 @@
       <c r="AK19" s="7"/>
     </row>
     <row r="20" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="32"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="8" t="s">
         <v>89</v>
       </c>
@@ -3721,7 +3721,7 @@
       <c r="AK20" s="8"/>
     </row>
     <row r="21" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="32"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="7" t="s">
         <v>88</v>
       </c>
@@ -3778,7 +3778,7 @@
       <c r="AK21" s="7"/>
     </row>
     <row r="22" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="32"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="8" t="s">
         <v>90</v>
       </c>
@@ -3835,8 +3835,8 @@
       <c r="AK22" s="8"/>
     </row>
     <row r="23" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="32"/>
-      <c r="B23" s="49" t="s">
+      <c r="A23" s="48"/>
+      <c r="B23" s="42" t="s">
         <v>135</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -3892,7 +3892,7 @@
       <c r="AK23" s="7"/>
     </row>
     <row r="24" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="32"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="8" t="s">
         <v>91</v>
       </c>
@@ -3949,7 +3949,7 @@
       <c r="AK24" s="8"/>
     </row>
     <row r="25" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="32"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="7" t="s">
         <v>92</v>
       </c>
@@ -4006,7 +4006,7 @@
       <c r="AK25" s="7"/>
     </row>
     <row r="26" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="32"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="8" t="s">
         <v>93</v>
       </c>
@@ -4063,7 +4063,7 @@
       <c r="AK26" s="8"/>
     </row>
     <row r="27" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="32"/>
+      <c r="A27" s="48"/>
       <c r="B27" s="7" t="s">
         <v>94</v>
       </c>
@@ -4120,7 +4120,7 @@
       <c r="AK27" s="7"/>
     </row>
     <row r="28" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="32"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="8" t="s">
         <v>85</v>
       </c>
@@ -4177,7 +4177,7 @@
       <c r="AK28" s="8"/>
     </row>
     <row r="29" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="32"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="7" t="s">
         <v>134</v>
       </c>
@@ -4234,7 +4234,7 @@
       <c r="AK29" s="7"/>
     </row>
     <row r="30" spans="1:37" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="48"/>
+      <c r="A30" s="49"/>
       <c r="B30" s="8" t="s">
         <v>132</v>
       </c>
@@ -4269,58 +4269,58 @@
       <c r="O30" s="8"/>
     </row>
     <row r="31" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="45" t="s">
         <v>122</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="43" t="str">
+      <c r="C31" s="37"/>
+      <c r="D31" s="38" t="str">
         <f>IF((D11-0.8)*D13 &gt;D15, "ERROR", "OK")</f>
         <v>OK</v>
       </c>
-      <c r="E31" s="43" t="str">
+      <c r="E31" s="38" t="str">
         <f t="shared" ref="E31:AJ31" si="0">IF((E11-0.8)*E13 &gt;E15, "ERROR", "OK")</f>
         <v>OK</v>
       </c>
-      <c r="F31" s="43" t="str">
+      <c r="F31" s="38" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="G31" s="43" t="str">
+      <c r="G31" s="38" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="H31" s="43" t="str">
+      <c r="H31" s="38" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="I31" s="43" t="str">
+      <c r="I31" s="38" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="J31" s="43" t="str">
+      <c r="J31" s="38" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="K31" s="43" t="str">
+      <c r="K31" s="38" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="L31" s="43" t="str">
+      <c r="L31" s="38" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="M31" s="43" t="str">
+      <c r="M31" s="38" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="N31" s="43" t="str">
+      <c r="N31" s="38" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="O31" s="43" t="str">
+      <c r="O31" s="38" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -4414,56 +4414,56 @@
       </c>
     </row>
     <row r="32" spans="1:37" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="41"/>
-      <c r="B32" s="44" t="s">
+      <c r="A32" s="46"/>
+      <c r="B32" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45" t="str">
+      <c r="C32" s="40"/>
+      <c r="D32" s="40" t="str">
         <f>IF(D16*D18&gt;D19,"ERROR","OK")</f>
         <v>OK</v>
       </c>
-      <c r="E32" s="45" t="str">
+      <c r="E32" s="40" t="str">
         <f t="shared" ref="E32:J32" si="1">IF(E16*E18&gt;E19,"ERROR","OK")</f>
         <v>OK</v>
       </c>
-      <c r="F32" s="45" t="str">
+      <c r="F32" s="40" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="G32" s="45" t="str">
+      <c r="G32" s="40" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="H32" s="45" t="str">
+      <c r="H32" s="40" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="I32" s="45" t="str">
+      <c r="I32" s="40" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="J32" s="45" t="str">
+      <c r="J32" s="40" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="K32" s="45" t="str">
+      <c r="K32" s="40" t="str">
         <f t="shared" ref="K32:V32" si="2">IF(K16*K18&gt;K19,"ERROR","OK")</f>
         <v>OK</v>
       </c>
-      <c r="L32" s="45" t="str">
+      <c r="L32" s="40" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="M32" s="45" t="str">
+      <c r="M32" s="40" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="N32" s="45" t="str">
+      <c r="N32" s="40" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="O32" s="45" t="str">
+      <c r="O32" s="40" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
@@ -10147,16 +10147,16 @@
     <mergeCell ref="A11:A30"/>
   </mergeCells>
   <conditionalFormatting sqref="D31:AK32">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
       <formula>"ERROR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
       <formula>"""OK"""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
       <formula>"""ERROR"""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11038,68 +11038,68 @@
     </row>
     <row r="3" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="33"/>
-      <c r="C4" s="39" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="36" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="34">
         <v>1</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="34">
         <v>1</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="34">
         <v>0.95</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="34">
         <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="34">
         <v>0.9</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="34">
         <v>0.85</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="34">
         <v>0.8</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="34">
         <v>0.7</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="35">
         <v>0.8</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="35">
         <v>0.75</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="35">
         <v>0.7</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="35">
         <v>0.6</v>
       </c>
     </row>

--- a/tests/input_file/inputparameters.xlsx
+++ b/tests/input_file/inputparameters.xlsx
@@ -122,7 +122,9 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>See sketch</t>
+          <t>See sketch
+Computed automatically if set to 0 as follows:
+abs(b_r - b_w) / 2</t>
         </r>
       </text>
     </comment>
@@ -147,15 +149,70 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Only relevant for static proof.
-Expected to be factorless (dynamic and risk factors are added during computation)
+Design contact force for fatigue
 Is computed automatically if set to 0 under following assumptions:
 -Lift center of gravity at highest point (Crane Height)
--Maximum accelerations in x and y</t>
+-Maximum acclererations in x and y
+Since this force (F_sd_f) is used on both sides of the proof of fatigue strength it effectiveley cancels out. Therefore, this force does not have an effect on the proof of fatigue's results. It is only relevant if you want to compare the predicted k_c to your own computation.</t>
         </r>
       </text>
     </comment>
     <comment ref="B10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Note:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Design contact force for fatigue
+Is computed automatically if set to 0 under following assumptions:
+-Lift center of gravity at highest point (Crane Height)
+-Maximum acclererations in x and y
+Since this force (F_sd_f) is used on both sides of the proof of fatigue strength it effectiveley cancels out. Therefore, this force does not have an effect on the proof of fatigue's results. It is only relevant if you want to compare the predicted k_c to your own computation.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Note:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Only relevant for static proof.
+Includes the relevant dynamic factors and risk factors.
+The worst case scenario (highest dynamic and risk factors) is expected here</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -176,14 +233,12 @@
             <family val="2"/>
           </rPr>
           <t>Only relevant for static proof.
-Expected to be factorless (dynamic and risk factors are added during computation)
-Is computed automatically if set to 0 under following assumptions:
--Lift center of gravity at highest point (Crane Height)
--Maximum acclererations in x and y</t>
+Includes the relevant dynamic factors and risk factors.
+The worst case scenario (highest dynamic and risk factors) is expected here.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0" shapeId="0">
+    <comment ref="B13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -206,7 +261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0">
+    <comment ref="B14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -236,7 +291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0">
+    <comment ref="B16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -252,7 +307,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -268,7 +323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0" shapeId="0">
+    <comment ref="B18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -284,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0" shapeId="0">
+    <comment ref="B19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -300,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0" shapeId="0">
+    <comment ref="B20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -316,7 +371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="0" shapeId="0">
+    <comment ref="B21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -332,7 +387,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0" shapeId="0">
+    <comment ref="B22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -345,7 +400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0" shapeId="0">
+    <comment ref="B23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -358,7 +413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0" shapeId="0">
+    <comment ref="B24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -372,7 +427,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="0" shapeId="0">
+    <comment ref="B25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -388,7 +443,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="0" shapeId="0">
+    <comment ref="B26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -401,7 +456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B25" authorId="0" shapeId="0">
+    <comment ref="B27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -417,7 +472,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B26" authorId="0" shapeId="0">
+    <comment ref="B28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -430,7 +485,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B27" authorId="0" shapeId="0">
+    <comment ref="B29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -443,7 +498,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B30" authorId="0" shapeId="0">
+    <comment ref="B32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -457,7 +512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0" shapeId="0">
+    <comment ref="B33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -470,7 +525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B32" authorId="0" shapeId="0">
+    <comment ref="B34" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -583,7 +638,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="140">
   <si>
     <t>0.3</t>
   </si>
@@ -933,12 +988,6 @@
     <t>w</t>
   </si>
   <si>
-    <t>Wheel-Maximum-Contact-Force (Design-Contact-Force) [kN]</t>
-  </si>
-  <si>
-    <t>Rail-Maximum-Contact-Force (Design-Contact-Force) [kN]</t>
-  </si>
-  <si>
     <t>Mast-Center-of-Gravity-x [Fraction of Wheel-Distance]</t>
   </si>
   <si>
@@ -994,6 +1043,24 @@
   </si>
   <si>
     <t>Lift-Center-of-Gravity-x [m or Fraction of Wheel-Distance]</t>
+  </si>
+  <si>
+    <t>Wheel-Maximum-Contact-Force (Design-Contact-Force); incl. factors [kN]</t>
+  </si>
+  <si>
+    <t>Rail-Maximum-Contact-Force (Design-Contact-Force); incl. factors [kN]</t>
+  </si>
+  <si>
+    <t>F_sd_s_w</t>
+  </si>
+  <si>
+    <t>F_sd_s_r</t>
+  </si>
+  <si>
+    <t>Wheel-Maximum-Contact-Force (Design-Contact-Force); factorless [kN]; can be set to 0</t>
+  </si>
+  <si>
+    <t>Rail-Maximum-Contact-Force (Design-Contact-Force); factorless [kN]; can be set to 0</t>
   </si>
 </sst>
 </file>
@@ -2075,16 +2142,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1130300</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>180208</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>920750</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>129408</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2101,7 +2168,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13811250" y="6254750"/>
+          <a:off x="10725150" y="6756400"/>
           <a:ext cx="2057400" cy="2967858"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2560,16 +2627,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK1893"/>
+  <dimension ref="A1:AK1895"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D2"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="59.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="79.1796875" customWidth="1"/>
+    <col min="3" max="3" width="21.36328125" customWidth="1"/>
     <col min="4" max="6" width="19.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.90625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.1796875" customWidth="1"/>
@@ -2866,7 +2933,7 @@
     <row r="6" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="44"/>
       <c r="B6" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>75</v>
@@ -2929,7 +2996,7 @@
         <v>114</v>
       </c>
       <c r="D7" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7">
         <v>10</v>
@@ -3037,31 +3104,31 @@
     <row r="9" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="44"/>
       <c r="B9" s="7" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D9" s="7">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="7">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="G9" s="7">
-        <v>23000</v>
+        <v>0</v>
       </c>
       <c r="H9" s="7">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>23000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7">
-        <v>23000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -3094,31 +3161,31 @@
     <row r="10" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="44"/>
       <c r="B10" s="8" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="8">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E10" s="8">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="8">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="G10" s="8">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="H10" s="8">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="I10" s="8">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="8">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -3148,36 +3215,34 @@
       <c r="AJ10" s="8"/>
       <c r="AK10" s="8"/>
     </row>
-    <row r="11" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="47" t="s">
-        <v>133</v>
-      </c>
+    <row r="11" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="44"/>
       <c r="B11" s="7" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="D11" s="7">
-        <v>24.9397924881983</v>
+        <v>20000</v>
       </c>
       <c r="E11" s="7">
-        <v>29.846033506748501</v>
+        <v>15000</v>
       </c>
       <c r="F11" s="7">
-        <v>21.549071913738601</v>
+        <v>40000</v>
       </c>
       <c r="G11" s="7">
-        <v>30.724628045371599</v>
+        <v>23000</v>
       </c>
       <c r="H11" s="7">
-        <v>24.603567265875999</v>
+        <v>15000</v>
       </c>
       <c r="I11" s="7">
-        <v>30.724628045371599</v>
+        <v>23000</v>
       </c>
       <c r="J11" s="7">
-        <v>30.724628045371599</v>
+        <v>23000</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -3208,33 +3273,33 @@
       <c r="AK11" s="7"/>
     </row>
     <row r="12" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="48"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="8" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="D12" s="8">
-        <v>0.397534327540081</v>
+        <v>20000</v>
       </c>
       <c r="E12" s="8">
-        <v>0.38745672969163403</v>
+        <v>15000</v>
       </c>
       <c r="F12" s="8">
-        <v>0.27778552720397198</v>
+        <v>18000</v>
       </c>
       <c r="G12" s="8">
-        <v>0.38853068564494597</v>
+        <v>12000</v>
       </c>
       <c r="H12" s="8">
-        <v>0.39281645770158102</v>
+        <v>14000</v>
       </c>
       <c r="I12" s="8">
-        <v>0.38853068564494597</v>
+        <v>12000</v>
       </c>
       <c r="J12" s="8">
-        <v>0.38853068564494597</v>
+        <v>12000</v>
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -3264,34 +3329,36 @@
       <c r="AJ12" s="8"/>
       <c r="AK12" s="8"/>
     </row>
-    <row r="13" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="48"/>
+    <row r="13" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="47" t="s">
+        <v>131</v>
+      </c>
       <c r="B13" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13" s="7">
-        <v>310.53423258511901</v>
+        <v>24.9397924881983</v>
       </c>
       <c r="E13" s="7">
-        <v>311.82631932244198</v>
+        <v>29.846033506748501</v>
       </c>
       <c r="F13" s="7">
-        <v>262.54231664112598</v>
+        <v>21.549071913738601</v>
       </c>
       <c r="G13" s="7">
-        <v>334.01554867815503</v>
+        <v>30.724628045371599</v>
       </c>
       <c r="H13" s="7">
-        <v>217.83710715883799</v>
+        <v>24.603567265875999</v>
       </c>
       <c r="I13" s="7">
-        <v>334.01554867815503</v>
+        <v>30.724628045371599</v>
       </c>
       <c r="J13" s="7">
-        <v>334.01554867815503</v>
+        <v>30.724628045371599</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -3324,31 +3391,31 @@
     <row r="14" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="48"/>
       <c r="B14" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8">
-        <v>0.43852951083798603</v>
+        <v>0.397534327540081</v>
       </c>
       <c r="E14" s="8">
-        <v>0.27896020164795099</v>
+        <v>0.38745672969163403</v>
       </c>
       <c r="F14" s="8">
-        <v>0.41639127372561502</v>
+        <v>0.27778552720397198</v>
       </c>
       <c r="G14" s="8">
-        <v>0.36908011038102101</v>
+        <v>0.38853068564494597</v>
       </c>
       <c r="H14" s="8">
-        <v>0.33759378483001701</v>
+        <v>0.39281645770158102</v>
       </c>
       <c r="I14" s="8">
-        <v>0.36908011038102101</v>
+        <v>0.38853068564494597</v>
       </c>
       <c r="J14" s="8">
-        <v>0.36908011038102101</v>
+        <v>0.38853068564494597</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
@@ -3381,31 +3448,31 @@
     <row r="15" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="48"/>
       <c r="B15" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" s="7">
-        <v>9592.8821295104699</v>
+        <v>310.53423258511901</v>
       </c>
       <c r="E15" s="7">
-        <v>13728.6250951821</v>
+        <v>311.82631932244198</v>
       </c>
       <c r="F15" s="7">
-        <v>9530.9428397424908</v>
+        <v>262.54231664112598</v>
       </c>
       <c r="G15" s="7">
-        <v>11844.471056845599</v>
+        <v>334.01554867815503</v>
       </c>
       <c r="H15" s="7">
-        <v>7039.1850549506698</v>
+        <v>217.83710715883799</v>
       </c>
       <c r="I15" s="7">
-        <v>11844.471056845599</v>
+        <v>334.01554867815503</v>
       </c>
       <c r="J15" s="7">
-        <v>11844.471056845599</v>
+        <v>334.01554867815503</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -3438,31 +3505,31 @@
     <row r="16" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="48"/>
       <c r="B16" s="8" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" s="8">
-        <v>6.9859353305379797</v>
+        <v>0.43852951083798603</v>
       </c>
       <c r="E16" s="8">
-        <v>4.8667038063889603</v>
+        <v>0.27896020164795099</v>
       </c>
       <c r="F16" s="8">
-        <v>3</v>
+        <v>0.41639127372561502</v>
       </c>
       <c r="G16" s="8">
-        <v>7.6920989582716999</v>
+        <v>0.36908011038102101</v>
       </c>
       <c r="H16" s="8">
-        <v>7.9973902757422897</v>
+        <v>0.33759378483001701</v>
       </c>
       <c r="I16" s="8">
-        <v>7.6920989582716999</v>
+        <v>0.36908011038102101</v>
       </c>
       <c r="J16" s="8">
-        <v>7.6920989582716999</v>
+        <v>0.36908011038102101</v>
       </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -3495,31 +3562,31 @@
     <row r="17" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="48"/>
       <c r="B17" s="7" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D17" s="7">
-        <v>0.36032232455732299</v>
+        <v>9592.8821295104699</v>
       </c>
       <c r="E17" s="7">
-        <v>0.43263553136410199</v>
+        <v>13728.6250951821</v>
       </c>
       <c r="F17" s="7">
-        <v>0.311870213321776</v>
+        <v>9530.9428397424908</v>
       </c>
       <c r="G17" s="7">
-        <v>0.34484796209278801</v>
+        <v>11844.471056845599</v>
       </c>
       <c r="H17" s="7">
-        <v>0.43685550941856799</v>
+        <v>7039.1850549506698</v>
       </c>
       <c r="I17" s="7">
-        <v>0.34484796209278801</v>
+        <v>11844.471056845599</v>
       </c>
       <c r="J17" s="7">
-        <v>0.34484796209278801</v>
+        <v>11844.471056845599</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -3552,31 +3619,31 @@
     <row r="18" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="48"/>
       <c r="B18" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18" s="8">
-        <v>235.360704664796</v>
+        <v>6.9859353305379797</v>
       </c>
       <c r="E18" s="8">
-        <v>208.806759033595</v>
+        <v>4.8667038063889603</v>
       </c>
       <c r="F18" s="8">
-        <v>226.06765407211699</v>
+        <v>3</v>
       </c>
       <c r="G18" s="8">
-        <v>392.86734368371702</v>
+        <v>7.6920989582716999</v>
       </c>
       <c r="H18" s="8">
-        <v>391.55736926069602</v>
+        <v>7.9973902757422897</v>
       </c>
       <c r="I18" s="8">
-        <v>392.86734368371702</v>
+        <v>7.6920989582716999</v>
       </c>
       <c r="J18" s="8">
-        <v>392.86734368371702</v>
+        <v>7.6920989582716999</v>
       </c>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
@@ -3609,31 +3676,31 @@
     <row r="19" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="48"/>
       <c r="B19" s="7" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D19" s="7">
-        <v>3620.8448324163101</v>
+        <v>0.36032232455732299</v>
       </c>
       <c r="E19" s="7">
-        <v>2311.15858694705</v>
+        <v>0.43263553136410199</v>
       </c>
       <c r="F19" s="7">
-        <v>2343.2994179618399</v>
+        <v>0.311870213321776</v>
       </c>
       <c r="G19" s="7">
-        <v>4284.9699230713404</v>
+        <v>0.34484796209278801</v>
       </c>
       <c r="H19" s="7">
-        <v>3659.2272904198899</v>
+        <v>0.43685550941856799</v>
       </c>
       <c r="I19" s="7">
-        <v>4284.9699230713404</v>
+        <v>0.34484796209278801</v>
       </c>
       <c r="J19" s="7">
-        <v>4284.9699230713404</v>
+        <v>0.34484796209278801</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -3666,31 +3733,31 @@
     <row r="20" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="48"/>
       <c r="B20" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D20" s="8">
-        <v>1.13373577673032</v>
+        <v>235.360704664796</v>
       </c>
       <c r="E20" s="8">
-        <v>2.4258179969420199</v>
+        <v>208.806759033595</v>
       </c>
       <c r="F20" s="8">
-        <v>2.3873285971102698</v>
+        <v>226.06765407211699</v>
       </c>
       <c r="G20" s="8">
-        <v>1.4564750409017799</v>
+        <v>392.86734368371702</v>
       </c>
       <c r="H20" s="8">
-        <v>0.99721191005946297</v>
+        <v>391.55736926069602</v>
       </c>
       <c r="I20" s="8">
-        <v>1.4564750409017799</v>
+        <v>392.86734368371702</v>
       </c>
       <c r="J20" s="8">
-        <v>1.4564750409017799</v>
+        <v>392.86734368371702</v>
       </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
@@ -3723,31 +3790,31 @@
     <row r="21" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="48"/>
       <c r="B21" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D21" s="7">
-        <v>0.67575877439752896</v>
+        <v>3620.8448324163101</v>
       </c>
       <c r="E21" s="7">
-        <v>0.51712000434017502</v>
+        <v>2311.15858694705</v>
       </c>
       <c r="F21" s="7">
-        <v>0.801477721483979</v>
+        <v>2343.2994179618399</v>
       </c>
       <c r="G21" s="7">
-        <v>9.8010774605840997E-2</v>
+        <v>4284.9699230713404</v>
       </c>
       <c r="H21" s="7">
-        <v>0.74159415955053198</v>
+        <v>3659.2272904198899</v>
       </c>
       <c r="I21" s="7">
-        <v>1</v>
+        <v>4284.9699230713404</v>
       </c>
       <c r="J21" s="7">
-        <v>1</v>
+        <v>4284.9699230713404</v>
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
@@ -3780,31 +3847,31 @@
     <row r="22" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="48"/>
       <c r="B22" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D22" s="8">
-        <v>3.8387980542432998</v>
+        <v>1.13373577673032</v>
       </c>
       <c r="E22" s="8">
-        <v>1.8776339003870799</v>
+        <v>2.4258179969420199</v>
       </c>
       <c r="F22" s="8">
-        <v>3.3657208787845398</v>
+        <v>2.3873285971102698</v>
       </c>
       <c r="G22" s="8">
-        <v>2.4178541756165899</v>
+        <v>1.4564750409017799</v>
       </c>
       <c r="H22" s="8">
-        <v>1.56466211459187</v>
+        <v>0.99721191005946297</v>
       </c>
       <c r="I22" s="8">
-        <v>2.4178541756165899</v>
+        <v>1.4564750409017799</v>
       </c>
       <c r="J22" s="8">
-        <v>2.4178541756165899</v>
+        <v>1.4564750409017799</v>
       </c>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
@@ -3836,32 +3903,32 @@
     </row>
     <row r="23" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="48"/>
-      <c r="B23" s="42" t="s">
-        <v>135</v>
+      <c r="B23" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D23" s="7">
-        <v>1.2</v>
+        <v>0.67575877439752896</v>
       </c>
       <c r="E23" s="7">
-        <v>3.2</v>
+        <v>0.51712000434017502</v>
       </c>
       <c r="F23" s="7">
-        <v>2.5</v>
+        <v>0.801477721483979</v>
       </c>
       <c r="G23" s="7">
-        <v>1.1000000000000001</v>
+        <v>9.8010774605840997E-2</v>
       </c>
       <c r="H23" s="7">
-        <v>1.9</v>
+        <v>0.74159415955053198</v>
       </c>
       <c r="I23" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" s="7">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -3894,31 +3961,31 @@
     <row r="24" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="48"/>
       <c r="B24" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D24" s="8">
-        <v>2351.0358557609202</v>
+        <v>3.8387980542432998</v>
       </c>
       <c r="E24" s="8">
-        <v>2600</v>
+        <v>1.8776339003870799</v>
       </c>
       <c r="F24" s="8">
-        <v>1000</v>
+        <v>3.3657208787845398</v>
       </c>
       <c r="G24" s="8">
-        <v>1500</v>
+        <v>2.4178541756165899</v>
       </c>
       <c r="H24" s="8">
-        <v>3000</v>
+        <v>1.56466211459187</v>
       </c>
       <c r="I24" s="8">
-        <v>850</v>
+        <v>2.4178541756165899</v>
       </c>
       <c r="J24" s="8">
-        <v>1093.0004954073299</v>
+        <v>2.4178541756165899</v>
       </c>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
@@ -3950,32 +4017,32 @@
     </row>
     <row r="25" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="48"/>
-      <c r="B25" s="7" t="s">
-        <v>92</v>
+      <c r="B25" s="42" t="s">
+        <v>133</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D25" s="7">
-        <v>479.56427978543297</v>
+        <v>1.2</v>
       </c>
       <c r="E25" s="7">
-        <v>342.07526272382</v>
+        <v>3.2</v>
       </c>
       <c r="F25" s="7">
-        <v>629.09549703360005</v>
+        <v>2.5</v>
       </c>
       <c r="G25" s="7">
-        <v>1336.8970567521501</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H25" s="7">
-        <v>1431.3338377950799</v>
+        <v>1.9</v>
       </c>
       <c r="I25" s="7">
-        <v>1336.8970567521501</v>
+        <v>3</v>
       </c>
       <c r="J25" s="7">
-        <v>1336.8970567521501</v>
+        <v>2.5</v>
       </c>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -4008,31 +4075,31 @@
     <row r="26" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48"/>
       <c r="B26" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D26" s="8">
-        <v>1.5209241133552001</v>
+        <v>2351.0358557609202</v>
       </c>
       <c r="E26" s="8">
-        <v>1.4611356146706</v>
+        <v>2600</v>
       </c>
       <c r="F26" s="8">
-        <v>1.17459338972312</v>
+        <v>1000</v>
       </c>
       <c r="G26" s="8">
-        <v>1.17980028181748</v>
+        <v>1500</v>
       </c>
       <c r="H26" s="8">
-        <v>0.97421919684422997</v>
+        <v>3000</v>
       </c>
       <c r="I26" s="8">
-        <v>1.17980028181748</v>
+        <v>850</v>
       </c>
       <c r="J26" s="8">
-        <v>1.17980028181748</v>
+        <v>1093.0004954073299</v>
       </c>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
@@ -4065,31 +4132,31 @@
     <row r="27" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="48"/>
       <c r="B27" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D27" s="7">
-        <v>148.023377589456</v>
+        <v>479.56427978543297</v>
       </c>
       <c r="E27" s="7">
-        <v>90</v>
+        <v>342.07526272382</v>
       </c>
       <c r="F27" s="7">
-        <v>100</v>
+        <v>629.09549703360005</v>
       </c>
       <c r="G27" s="7">
-        <v>70</v>
+        <v>1336.8970567521501</v>
       </c>
       <c r="H27" s="7">
-        <v>130</v>
+        <v>1431.3338377950799</v>
       </c>
       <c r="I27" s="7">
-        <v>145</v>
+        <v>1336.8970567521501</v>
       </c>
       <c r="J27" s="7">
-        <v>120</v>
+        <v>1336.8970567521501</v>
       </c>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
@@ -4122,31 +4189,31 @@
     <row r="28" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="48"/>
       <c r="B28" s="8" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D28" s="8">
-        <v>4000000</v>
+        <v>1.5209241133552001</v>
       </c>
       <c r="E28" s="8">
-        <v>4000000</v>
+        <v>1.4611356146706</v>
       </c>
       <c r="F28" s="8">
-        <v>4000000</v>
+        <v>1.17459338972312</v>
       </c>
       <c r="G28" s="8">
-        <v>4000000</v>
+        <v>1.17980028181748</v>
       </c>
       <c r="H28" s="8">
-        <v>4000000</v>
+        <v>0.97421919684422997</v>
       </c>
       <c r="I28" s="8">
-        <v>4000000</v>
+        <v>1.17980028181748</v>
       </c>
       <c r="J28" s="8">
-        <v>4000000</v>
+        <v>1.17980028181748</v>
       </c>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
@@ -4179,31 +4246,31 @@
     <row r="29" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="48"/>
       <c r="B29" s="7" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D29" s="7">
-        <v>12000000</v>
+        <v>148.023377589456</v>
       </c>
       <c r="E29" s="7">
-        <v>13000000</v>
+        <v>90</v>
       </c>
       <c r="F29" s="7">
-        <v>13000000</v>
+        <v>100</v>
       </c>
       <c r="G29" s="7">
-        <v>13000000</v>
+        <v>70</v>
       </c>
       <c r="H29" s="7">
-        <v>13000000</v>
+        <v>130</v>
       </c>
       <c r="I29" s="7">
-        <v>13000000</v>
+        <v>145</v>
       </c>
       <c r="J29" s="7">
-        <v>13000000</v>
+        <v>120</v>
       </c>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
@@ -4233,375 +4300,483 @@
       <c r="AJ29" s="7"/>
       <c r="AK29" s="7"/>
     </row>
-    <row r="30" spans="1:37" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="49"/>
+    <row r="30" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="48"/>
       <c r="B30" s="8" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D30" s="8">
-        <v>1</v>
+        <v>4000000</v>
       </c>
       <c r="E30" s="8">
-        <v>2</v>
+        <v>4000000</v>
       </c>
       <c r="F30" s="8">
-        <v>4</v>
+        <v>4000000</v>
       </c>
       <c r="G30" s="8">
-        <v>1</v>
+        <v>4000000</v>
       </c>
       <c r="H30" s="8">
-        <v>2</v>
+        <v>4000000</v>
       </c>
       <c r="I30" s="8">
-        <v>1</v>
+        <v>4000000</v>
       </c>
       <c r="J30" s="8">
-        <v>1</v>
+        <v>4000000</v>
       </c>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="8"/>
+      <c r="AK30" s="8"/>
     </row>
     <row r="31" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="45" t="s">
-        <v>122</v>
-      </c>
+      <c r="A31" s="48"/>
       <c r="B31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="7">
+        <v>12000000</v>
+      </c>
+      <c r="E31" s="7">
+        <v>13000000</v>
+      </c>
+      <c r="F31" s="7">
+        <v>13000000</v>
+      </c>
+      <c r="G31" s="7">
+        <v>13000000</v>
+      </c>
+      <c r="H31" s="7">
+        <v>13000000</v>
+      </c>
+      <c r="I31" s="7">
+        <v>13000000</v>
+      </c>
+      <c r="J31" s="7">
+        <v>13000000</v>
+      </c>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="7"/>
+      <c r="AH31" s="7"/>
+      <c r="AI31" s="7"/>
+      <c r="AJ31" s="7"/>
+      <c r="AK31" s="7"/>
+    </row>
+    <row r="32" spans="1:37" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="49"/>
+      <c r="B32" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1</v>
+      </c>
+      <c r="E32" s="8">
+        <v>2</v>
+      </c>
+      <c r="F32" s="8">
+        <v>4</v>
+      </c>
+      <c r="G32" s="8">
+        <v>1</v>
+      </c>
+      <c r="H32" s="8">
+        <v>2</v>
+      </c>
+      <c r="I32" s="8">
+        <v>1</v>
+      </c>
+      <c r="J32" s="8">
+        <v>1</v>
+      </c>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+    </row>
+    <row r="33" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="38" t="str">
-        <f>IF((D11-0.8)*D13 &gt;D15, "ERROR", "OK")</f>
+      <c r="B33" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="37"/>
+      <c r="D33" s="38" t="str">
+        <f>IF((D13-0.8)*D15 &gt;D17, "ERROR", "OK")</f>
         <v>OK</v>
       </c>
-      <c r="E31" s="38" t="str">
-        <f t="shared" ref="E31:AJ31" si="0">IF((E11-0.8)*E13 &gt;E15, "ERROR", "OK")</f>
+      <c r="E33" s="38" t="str">
+        <f t="shared" ref="E33:AJ33" si="0">IF((E13-0.8)*E15 &gt;E17, "ERROR", "OK")</f>
         <v>OK</v>
       </c>
-      <c r="F31" s="38" t="str">
+      <c r="F33" s="38" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="G31" s="38" t="str">
+      <c r="G33" s="38" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="H31" s="38" t="str">
+      <c r="H33" s="38" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="I31" s="38" t="str">
+      <c r="I33" s="38" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="J31" s="38" t="str">
+      <c r="J33" s="38" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="K31" s="38" t="str">
+      <c r="K33" s="38" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="L31" s="38" t="str">
+      <c r="L33" s="38" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="M31" s="38" t="str">
+      <c r="M33" s="38" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="N31" s="38" t="str">
+      <c r="N33" s="38" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="O31" s="38" t="str">
+      <c r="O33" s="38" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="P31" s="21" t="str">
+      <c r="P33" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="Q31" s="21" t="str">
+      <c r="Q33" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="R31" s="21" t="str">
+      <c r="R33" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="S31" s="21" t="str">
+      <c r="S33" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="T31" s="21" t="str">
+      <c r="T33" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="U31" s="21" t="str">
+      <c r="U33" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="V31" s="21" t="str">
+      <c r="V33" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="W31" s="21" t="str">
+      <c r="W33" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="X31" s="21" t="str">
+      <c r="X33" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="Y31" s="21" t="str">
+      <c r="Y33" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="Z31" s="21" t="str">
+      <c r="Z33" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="AA31" s="21" t="str">
+      <c r="AA33" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="AB31" s="21" t="str">
+      <c r="AB33" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="AC31" s="21" t="str">
+      <c r="AC33" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="AD31" s="21" t="str">
+      <c r="AD33" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="AE31" s="21" t="str">
+      <c r="AE33" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="AF31" s="21" t="str">
+      <c r="AF33" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="AG31" s="21" t="str">
+      <c r="AG33" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="AH31" s="21" t="str">
+      <c r="AH33" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="AI31" s="21" t="str">
+      <c r="AI33" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="AJ31" s="21" t="str">
+      <c r="AJ33" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="AK31" s="21" t="str">
-        <f>IF((AK11-0.8)*AK13 &gt;AK15, "ERROR", "OK")</f>
+      <c r="AK33" s="21" t="str">
+        <f>IF((AK13-0.8)*AK15 &gt;AK17, "ERROR", "OK")</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="32" spans="1:37" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="46"/>
-      <c r="B32" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40" t="str">
-        <f>IF(D16*D18&gt;D19,"ERROR","OK")</f>
+    <row r="34" spans="1:37" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="46"/>
+      <c r="B34" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40" t="str">
+        <f>IF(D18*D20&gt;D21,"ERROR","OK")</f>
         <v>OK</v>
       </c>
-      <c r="E32" s="40" t="str">
-        <f t="shared" ref="E32:J32" si="1">IF(E16*E18&gt;E19,"ERROR","OK")</f>
+      <c r="E34" s="40" t="str">
+        <f t="shared" ref="E34:J34" si="1">IF(E18*E20&gt;E21,"ERROR","OK")</f>
         <v>OK</v>
       </c>
-      <c r="F32" s="40" t="str">
+      <c r="F34" s="40" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="G32" s="40" t="str">
+      <c r="G34" s="40" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="H32" s="40" t="str">
+      <c r="H34" s="40" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="I32" s="40" t="str">
+      <c r="I34" s="40" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="J32" s="40" t="str">
+      <c r="J34" s="40" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="K32" s="40" t="str">
-        <f t="shared" ref="K32:V32" si="2">IF(K16*K18&gt;K19,"ERROR","OK")</f>
+      <c r="K34" s="40" t="str">
+        <f t="shared" ref="K34:V34" si="2">IF(K18*K20&gt;K21,"ERROR","OK")</f>
         <v>OK</v>
       </c>
-      <c r="L32" s="40" t="str">
+      <c r="L34" s="40" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="M32" s="40" t="str">
+      <c r="M34" s="40" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="N32" s="40" t="str">
+      <c r="N34" s="40" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="O32" s="40" t="str">
+      <c r="O34" s="40" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="P32" s="6" t="str">
+      <c r="P34" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="Q32" s="6" t="str">
+      <c r="Q34" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="R32" s="6" t="str">
+      <c r="R34" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="S32" s="6" t="str">
+      <c r="S34" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="T32" s="6" t="str">
+      <c r="T34" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="U32" s="6" t="str">
+      <c r="U34" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="V32" s="6" t="str">
+      <c r="V34" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="W32" s="6" t="str">
-        <f t="shared" ref="W32:AK32" si="3">IF(W16*W18&gt;W19,"ERROR","OK")</f>
+      <c r="W34" s="6" t="str">
+        <f t="shared" ref="W34:AK34" si="3">IF(W18*W20&gt;W21,"ERROR","OK")</f>
         <v>OK</v>
       </c>
-      <c r="X32" s="6" t="str">
+      <c r="X34" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="Y32" s="6" t="str">
+      <c r="Y34" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="Z32" s="6" t="str">
+      <c r="Z34" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="AA32" s="6" t="str">
+      <c r="AA34" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="AB32" s="6" t="str">
+      <c r="AB34" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="AC32" s="6" t="str">
+      <c r="AC34" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="AD32" s="6" t="str">
+      <c r="AD34" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="AE32" s="6" t="str">
+      <c r="AE34" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="AF32" s="6" t="str">
+      <c r="AF34" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="AG32" s="6" t="str">
+      <c r="AG34" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="AH32" s="6" t="str">
+      <c r="AH34" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="AI32" s="6" t="str">
+      <c r="AI34" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="AJ32" s="6" t="str">
+      <c r="AJ34" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="AK32" s="6" t="str">
+      <c r="AK34" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33"/>
-    </row>
-    <row r="34" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34"/>
-    </row>
-    <row r="35" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35"/>
     </row>
-    <row r="36" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36"/>
     </row>
-    <row r="37" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37"/>
     </row>
-    <row r="38" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38"/>
     </row>
-    <row r="39" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39"/>
     </row>
-    <row r="40" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40"/>
     </row>
-    <row r="41" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41"/>
     </row>
-    <row r="42" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42"/>
     </row>
-    <row r="43" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43"/>
     </row>
-    <row r="44" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45"/>
     </row>
-    <row r="46" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47"/>
     </row>
-    <row r="48" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48"/>
     </row>
     <row r="49" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -10138,15 +10313,21 @@
     </row>
     <row r="1893" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1893"/>
+    </row>
+    <row r="1894" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1894"/>
+    </row>
+    <row r="1895" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1895"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0"/>
   <mergeCells count="3">
-    <mergeCell ref="A1:A10"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A11:A30"/>
+    <mergeCell ref="A1:A12"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A13:A32"/>
   </mergeCells>
-  <conditionalFormatting sqref="D31:AK32">
+  <conditionalFormatting sqref="D33:AK34">
     <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -10164,14 +10345,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Note " prompt="If the desired material does not figure on the list, please add it as well as its following parameters manuelly to the list in the worksheet &quot;wheel_materials&quot;" sqref="Q7:AK7">
       <formula1>rng_wheel_material_names</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Note" prompt="If the desired material does not figrue on the list, please add it as well as its following parameters to the list in the worksheet &quot;rail-materials&quot;" sqref="Q8:AK8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Note" prompt="If the desired material does not figrue on the list, please add it as well as its following parameters to the list in the worksheet &quot;rail-materials&quot;" sqref="Q8:AK10">
       <formula1>rng_rail_material_names</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q11:XFD30">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q13:XFD32">
       <formula1>0</formula1>
       <formula2>1E+99</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q9:XFD10">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q11:XFD12">
       <formula1>0</formula1>
       <formula2>1000000000000000000</formula2>
     </dataValidation>
@@ -10198,7 +10379,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10499,7 +10680,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11017,7 +11198,7 @@
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11033,28 +11214,28 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="30"/>
       <c r="C4" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="F4" s="36" t="s">
         <v>127</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C5" s="34">
         <v>1</v>
@@ -11071,7 +11252,7 @@
     </row>
     <row r="6" spans="2:6" ht="28" x14ac:dyDescent="0.3">
       <c r="B6" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C6" s="34">
         <v>0.9</v>
@@ -11088,7 +11269,7 @@
     </row>
     <row r="7" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="33" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C7" s="35">
         <v>0.8</v>

--- a/tests/input_file/inputparameters.xlsx
+++ b/tests/input_file/inputparameters.xlsx
@@ -4413,7 +4413,7 @@
   <dimension ref="A1:AK1895"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5294,7 +5294,7 @@
         <v>41</v>
       </c>
       <c r="D16" s="8">
-        <v>0.43852951083798603</v>
+        <v>0.2</v>
       </c>
       <c r="E16" s="8">
         <v>0.27896020164795099</v>
